--- a/Projects/scrapping_py/MaritimeToyota.xlsx
+++ b/Projects/scrapping_py/MaritimeToyota.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra 1794</t>
+          <t>2024 Toyota Tundra SR5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83601</v>
+        <v>61401</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -495,11 +495,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra SR5</t>
+          <t>2024 Toyota Tundra LIMITED TRD OFF ROAD</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61401</v>
+        <v>75171</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -567,11 +567,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra LIMITED TRD OFF ROAD</t>
+          <t>2024 Toyota Tundra CREWMAX PLATINUM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75171</v>
+        <v>80390</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -603,11 +603,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024 Toyota Prius Limited AWD</t>
+          <t>2024 Toyota Prius XLE AWD</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46027</v>
+        <v>39632</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -621,11 +621,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024 Toyota Prius XLE AWD</t>
+          <t>2024 Toyota Prius Limited AWD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39632</v>
+        <v>46027</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50150</v>
+        <v>50090</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>50749</v>
+        <v>50689</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>51098</v>
+        <v>51038</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2439,11 +2439,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 LE</t>
+          <t>2024 Toyota COROLLA CROSS LE AWD</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>35202</v>
+        <v>33397</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2457,11 +2457,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 Hybrid XLE</t>
+          <t>2024 Toyota Tundra TRD OFF ROAD</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>41357</v>
+        <v>65182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2475,11 +2475,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024 Toyota COROLLA CROSS LE AWD</t>
+          <t>2024 Toyota RAV4 LE</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>33142</v>
+        <v>35202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2493,11 +2493,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 TRAIL</t>
+          <t>2024 Toyota Tundra SR5</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>42602</v>
+        <v>62502</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2511,11 +2511,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024 Toyota Tacoma TRD Off Road Premium</t>
+          <t>2024 Toyota GRAND HIGHLANDER HYBRID Limited</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>60402</v>
+        <v>63242</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2529,11 +2529,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra TRD OFF ROAD</t>
+          <t>2024 Toyota TUNDRA HYBRID TRD PRO</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>65182</v>
+        <v>88962</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2547,11 +2547,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024 Toyota COROLLA CROSS LE PREMIUM AWD</t>
+          <t>2024 Toyota Tacoma TRD Sport Premium</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>34822</v>
+        <v>60202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2565,11 +2565,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra SR5</t>
+          <t>2024 Toyota VENZA HYBRID LE</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>62502</v>
+        <v>44857</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2583,11 +2583,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024 Toyota GRAND HIGHLANDER HYBRID Limited</t>
+          <t>2024 Toyota VENZA HYBRID LIMITED</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>63242</v>
+        <v>54557</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2601,11 +2601,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024 Toyota TUNDRA HYBRID TRD PRO</t>
+          <t>2024 Toyota RAV4 XLE</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>88962</v>
+        <v>39157</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2619,11 +2619,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024 Toyota Tacoma TRD Sport Premium</t>
+          <t>2023 Toyota TUNDRA HYBRID TRD PRO</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>60202</v>
+        <v>86112</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2637,15 +2637,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024 Toyota VENZA HYBRID LE</t>
+          <t>2024 Toyota Tundra Platinum Hybrid</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>44857</v>
+        <v>64790</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.restigouchetoyota.com/en/new-inventory</t>
+          <t>https://www.rousseltoyota.com/en/new-inventory</t>
         </is>
       </c>
     </row>
@@ -2655,67 +2655,13 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024 Toyota VENZA HYBRID LIMITED</t>
+          <t>2023 Toyota Tundra Limited Hybrid</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>54557</v>
+        <v>82000</v>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>https://www.restigouchetoyota.com/en/new-inventory</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2024 Toyota RAV4 XLE</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>39157</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://www.restigouchetoyota.com/en/new-inventory</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023 Toyota TUNDRA HYBRID TRD PRO</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>86112</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://www.restigouchetoyota.com/en/new-inventory</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023 Toyota Tundra Limited Hybrid</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>82000</v>
-      </c>
-      <c r="D126" t="inlineStr">
         <is>
           <t>https://www.rousseltoyota.com/en/new-inventory</t>
         </is>
@@ -2732,7 +2678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,12 +2689,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024ToyotaTundra</t>
+          <t>2024ToyotaLand Cruiser</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>62550</t>
+          <t>69290</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2758,7 +2704,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>value:"Magnetic Grey Metallic"}</t>
+          <t>value:"Black"}</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2768,7 +2714,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>value:"SR"}</t>
+          <t>value:"1958"}</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2798,7 +2744,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>value:"Gas"}</t>
+          <t>value:"Hybrid"}</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -2808,18 +2754,18 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>value:"#TD45293"}]</t>
+          <t>value:"#TD45299"}]</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024ToyotaVenza</t>
+          <t>2024ToyotaTacoma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49045</v>
+        <v>54450</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2828,59 +2774,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>value:"Wind Chill Pearl (White)"}</t>
+          <t>value:"Blue Crush"}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"label":"Trim"</t>
+          <t>{"label":"Transmission"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>value:"XLE"}</t>
+          <t>value:"Auto"}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{"label":"Transmission"</t>
+          <t>{"label":"Drivetrain"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>value:"Auto"}</t>
+          <t>value:"4-Wheel drive"}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{"label":"Drivetrain"</t>
+          <t>{"label":"Fuel Type"</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>value:"All-Wheel drive"}</t>
+          <t>value:"Gas"}</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"label":"Fuel Type"</t>
+          <t>{"label":"Stock #"</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>value:"Hybrid"}</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"label":"Stock #"</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>value:"#TD45274"}]</t>
-        </is>
-      </c>
+          <t>value:"#TD45200"}]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2889,7 +2827,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62760</v>
+        <v>72220</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2898,7 +2836,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>value:"Blueprint"}</t>
+          <t>value:"Midnight Black Metallic"}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2908,7 +2846,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>value:"SR"}</t>
+          <t>value:"Limited"}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2948,18 +2886,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>value:"#TD45253"}]</t>
+          <t>value:"#TD45171"}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024ToyotaTacoma</t>
+          <t>2024ToyotaHighlander</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54450</v>
+        <v>49650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2968,60 +2906,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>value:"Blue Crush"}</t>
+          <t>value:"Midnight Black Metallic"}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>{"label":"Trim"</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>value:"XLE"}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>{"label":"Transmission"</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>value:"Auto"}</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>{"label":"Drivetrain"</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>value:"4-Wheel drive"}</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>value:"All-Wheel drive"}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>{"label":"Fuel Type"</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>value:"Gas"}</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>{"label":"Stock #"</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>value:"#TD45200"}]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>value:"#TD45061"}]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024ToyotaTundra</t>
+          <t>2024ToyotaRAV4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72220</v>
+        <v>39050</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3030,7 +2976,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>value:"Midnight Black Metallic"}</t>
+          <t>value:"White"}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3040,7 +2986,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>value:"Limited"}</t>
+          <t>value:"Hybrid XLE"}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3060,7 +3006,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>value:"4-Wheel drive"}</t>
+          <t>value:"All-Wheel drive"}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -3070,7 +3016,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>value:"Gas"}</t>
+          <t>value:"Hybrid"}</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -3080,18 +3026,18 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>value:"#TD45171"}]</t>
+          <t>value:"#TD44981"}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024ToyotaHighlander</t>
+          <t>2024ToyotaRAV4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49650</v>
+        <v>36850</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3100,7 +3046,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>value:"Midnight Black Metallic"}</t>
+          <t>value:"Magnetic Grey Metallic"}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3150,18 +3096,18 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>value:"#TD45061"}]</t>
+          <t>value:"#TD44869"}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024ToyotaRAV4</t>
+          <t>2024ToyotaCorolla</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39050</v>
+        <v>28290</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3170,7 +3116,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>value:"White"}</t>
+          <t>value:"Midnight Black Metallic"}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3180,7 +3126,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>value:"Hybrid XLE"}</t>
+          <t>value:"Hybrid LE"}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3220,18 +3166,18 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>value:"#TD44981"}]</t>
+          <t>value:"#TD44823"}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024ToyotaRAV4</t>
+          <t>2024ToyotaCorolla Cross</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36850</v>
+        <v>30690</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3240,7 +3186,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>value:"Magnetic Grey Metallic"}</t>
+          <t>value:"Jet Black Mica"}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3250,7 +3196,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>value:"XLE"}</t>
+          <t>value:"LE"}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3290,18 +3236,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>value:"#TD44869"}]</t>
+          <t>value:"#TD44762"}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024ToyotaCorolla</t>
+          <t>2024ToyotaCorolla Cross</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28290</v>
+        <v>34190</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3310,7 +3256,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>value:"Midnight Black Metallic"}</t>
+          <t>value:"Jet Black Mica"}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3320,7 +3266,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>value:"Hybrid LE"}</t>
+          <t>value:"Hybrid SE"}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3360,18 +3306,18 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>value:"#TD44823"}]</t>
+          <t>value:"#TD44763"}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024ToyotaCorolla Cross</t>
+          <t>2024ToyotaGrand Highlander</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30690</v>
+        <v>50490</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3380,7 +3326,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>value:"Jet Black Mica"}</t>
+          <t>value:"Midnight Black Metallic"}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3390,7 +3336,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>value:"LE"}</t>
+          <t>value:"XLE"}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3430,18 +3376,18 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>value:"#TD44762"}]</t>
+          <t>value:"#TD44310"}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024ToyotaCorolla Cross</t>
+          <t>2023ToyotaCorolla Hatchback</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34190</v>
+        <v>25250</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3450,7 +3396,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>value:"Jet Black Mica"}</t>
+          <t>value:"Midnight Black Metallic"}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3460,7 +3406,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>value:"Hybrid SE"}</t>
+          <t>value:"CVT"}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3480,7 +3426,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>value:"All-Wheel drive"}</t>
+          <t>value:"Front-Wheel drive"}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -3490,7 +3436,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>value:"Hybrid"}</t>
+          <t>value:"Gas"}</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -3499,146 +3445,6 @@
         </is>
       </c>
       <c r="N11" t="inlineStr">
-        <is>
-          <t>value:"#TD44763"}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024ToyotaGrand Highlander</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>50490</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[{"label":"Colour"</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>value:"Midnight Black Metallic"}</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{"label":"Trim"</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>value:"XLE"}</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{"label":"Transmission"</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>value:"Auto"}</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>{"label":"Drivetrain"</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>value:"All-Wheel drive"}</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>{"label":"Fuel Type"</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>value:"Gas"}</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>{"label":"Stock #"</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>value:"#TD44310"}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023ToyotaCorolla Hatchback</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25250</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[{"label":"Colour"</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>value:"Midnight Black Metallic"}</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{"label":"Trim"</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>value:"CVT"}</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{"label":"Transmission"</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>value:"Auto"}</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>{"label":"Drivetrain"</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>value:"Front-Wheel drive"}</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>{"label":"Fuel Type"</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>value:"Gas"}</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>{"label":"Stock #"</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
         <is>
           <t>value:"#TD43727"}]</t>
         </is>
@@ -3655,7 +3461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3717,7 +3523,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24237</v>
+        <v>23604</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
@@ -3728,12 +3534,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5YFB4MDE6RP191355</t>
+          <t>5YFB4MDEXRP195022</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Ice Cap</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3750,7 +3556,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Corolla LE Sedan</t>
+          <t>New 2024 Toyota Corolla LE 4D Sedan</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3762,7 +3568,11 @@
           <t>LE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T191167</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>5YFB4MDE5RP191167</t>
@@ -3775,7 +3585,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Light Gray Fabric</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3787,7 +3597,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Corolla LE Sedan</t>
+          <t>New 2024 Toyota Corolla LE 4D Sedan</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3799,7 +3609,11 @@
           <t>LE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>T190699</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>5YFB4MDE0RP190699</t>
@@ -3807,12 +3621,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Black Fabric</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3902,11 +3716,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>New 2024 Toyota RAV4 LE SUV</t>
+          <t>New 2024 Toyota Corolla Cross LE Crossover</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32602</v>
+        <v>29761</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
@@ -3917,17 +3731,17 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2T3H1RFV8RC286200</t>
+          <t>7MUCAAAG4RV099790</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Magnetic Gray Metallic</t>
+          <t>Wind Chill Pearl []</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Black Fabric</t>
+          <t>Light Gray Fabric</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3943,7 +3757,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33005</v>
+        <v>32602</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
@@ -3953,12 +3767,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>T276013</t>
+          <t>T286200</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2T3H1RFV3RC276013</t>
+          <t>2T3H1RFV8RC286200</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4017,32 +3831,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>New 2024 Toyota RAV4 XLE SUV</t>
+          <t>New 2025 Toyota Camry SE Sedan</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34372</v>
+        <v>33476</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2T3W1RFV6RC285604</t>
+          <t>4T1DAACK2SU027287</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Silver Sky Metallic</t>
+          <t>Reservoir Blue</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ash Fabric</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4054,36 +3868,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>New 2024 Toyota RAV4 XLE 4D Sport Utility</t>
+          <t>New 2025 Toyota Camry SE Sedan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34372</v>
+        <v>33476</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>XLE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>T284845</t>
-        </is>
-      </c>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2T3W1RFV1RC284845</t>
+          <t>4T1DAACK4SU027517</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Silver Sky Metallic</t>
+          <t>Ice Cap</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4109,22 +3919,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T341804</t>
+          <t>T285604</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2T3W1RFV1RW341804</t>
+          <t>2T3W1RFV6RC285604</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bluprint</t>
+          <t>Silver Sky Metallic</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Ash Fabric</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4136,41 +3946,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>New 2024 Toyota GR86 Premium 2D Coupe</t>
+          <t>New 2024 Toyota RAV4 XLE 4D Sport Utility</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34738</v>
+        <v>34372</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T754883</t>
+          <t>T341804</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>JF1ZNBE12R8754883</t>
+          <t>2T3W1RFV1RW341804</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pavement</t>
+          <t>Bluprint</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
@@ -4214,32 +4024,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>New 2025 Toyota Camry XSE Sedan</t>
+          <t>New 2024 Toyota RAV4 XLE Premium 4D Sport Utility</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37432</v>
+        <v>36422</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>XSE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>XLE Premium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>T343415</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4T1DAACK7SU514503</t>
+          <t>2T3C1RFV7RW343415</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Heavy Metal []</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -4251,32 +4065,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>New 2025 Toyota Camry XSE Sedan</t>
+          <t>New 2024 Toyota RAV4 XLE Premium 4D Sport Utility</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37863</v>
+        <v>36422</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>XSE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>XLE Premium</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T342904</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4T1DAACK3SU517902</t>
+          <t>2T3C1RFV6RW342904</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Wind Chill Prl</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cockpit Red</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4288,11 +4106,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>New 2025 Toyota Camry XSE Sedan</t>
+          <t>New 2025 Toyota Camry XSE 4D Sedan</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38323</v>
+        <v>37432</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
@@ -4300,20 +4118,24 @@
           <t>XSE</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>T514503</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4T1DAACK4SU020955</t>
+          <t>4T1DAACK7SU514503</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Heavy Metal</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4325,11 +4147,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>New 2025 Toyota Camry XSE 4D Sedan</t>
+          <t>New 2025 Toyota Camry XSE Sedan</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39381</v>
+        <v>37863</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
@@ -4337,24 +4159,20 @@
           <t>XSE</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>T512163</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4T1DAACKXSU512163</t>
+          <t>4T1DAACK3SU517902</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Heavy Metal</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Cockpit Red</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4366,178 +4184,178 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
+          <t>New 2025 Toyota Camry XSE 4D Sedan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41048</v>
+        <v>38323</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SR5</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>XSE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>T020955</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3TMKB5FN8RM007498</t>
+          <t>4T1DAACK4SU020955</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Black Fabric</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4X2</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
+          <t>New 2025 Toyota Camry XSE 4D Sedan</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42773</v>
+        <v>39381</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SR5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>XSE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>T512163</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3TMKB5FN7RM007556</t>
+          <t>4T1DAACKXSU512163</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Heavy Metal</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Black Fabric</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4X2</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
+          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43552</v>
+        <v>41048</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TRD Sport</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>T003448</t>
-        </is>
-      </c>
+          <t>SR5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3TMKB5FN6RM003448</t>
+          <t>3TMKB5FN8RM007498</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Celestial Silver Metallic</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>Black Fabric</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>4X2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
+          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43552</v>
+        <v>42773</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRD Sport</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>T003489</t>
-        </is>
-      </c>
+          <t>SR5</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3TMKB5FN9RM003489</t>
+          <t>3TMKB5FN7RM007556</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Celestial Silver Metallic</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>Black Fabric</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>4X2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
+          <t>New 2024 Toyota Tacoma TRD Sport Double Cab</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44448</v>
+        <v>42982</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SR5</t>
+          <t>TRD Sport</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3TMLB5JN5RM025727</t>
+          <t>3TMKB5FN1RM009741</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4547,34 +4365,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Black Fabric</t>
+          <t>Boulder/Black Fabric W/Smoke Silver</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>2WD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
+          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44493</v>
+        <v>43552</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SR5</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>TRD Sport</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>T003489</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3TMLB5JN7RM030640</t>
+          <t>3TMKB5FN9RM003489</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4584,49 +4406,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Boulder Fabric</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>RWD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
+          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44493</v>
+        <v>43552</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SR5</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>TRD Sport</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>T003448</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3TMLB5JN7RM029245</t>
+          <t>3TMKB5FN6RM003448</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ice Cap</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Black Fabric</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>RWD</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4463,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44903</v>
+        <v>44448</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
@@ -4648,7 +4474,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3TYLB5JN2RT034020</t>
+          <t>3TMLB5JN5RM025727</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4658,7 +4484,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Boulder Fabric</t>
+          <t>Black Fabric</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4670,11 +4496,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma SR5 4D Double Cab</t>
+          <t>New 2024 Toyota Tacoma SR5 Double Cab</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45323</v>
+        <v>44493</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
@@ -4682,24 +4508,20 @@
           <t>SR5</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>T017665</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3TMLB5JN2RM017665</t>
+          <t>3TMLB5JN7RM030640</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Boulder Fabric</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4711,31 +4533,31 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Highlander XLE 4D Sport Utility</t>
+          <t>New 2024 Toyota Tacoma SR5 4D Double Cab</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45465</v>
+        <v>44493</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>SR5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>T544885</t>
+          <t>T029245</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5TDKDRAH0RS544885</t>
+          <t>3TMLB5JN7RM029245</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4745,7 +4567,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>4WD</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4578,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45499</v>
+        <v>44903</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
@@ -4767,12 +4589,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3TYLB5JNXRT029938</t>
+          <t>3TYLB5JN2RT034020</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Ice Cap</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4789,26 +4611,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Venza Limited 4D Sport Utility</t>
+          <t>New 2024 Toyota Highlander XLE 4D Sport Utility</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45738</v>
+        <v>45465</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>T168452</t>
+          <t>T544885</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>JTEAAAAH8RJ168452</t>
+          <t>5TDKDRAH0RS544885</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4823,33 +4645,33 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>AWD</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
+          <t>New 2024 Toyota Tacoma SR5 4D Double Cab</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46387</v>
+        <v>45499</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TRD Sport</t>
+          <t>SR5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>T028188</t>
+          <t>T029938</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3TYLB5JNXRT028188</t>
+          <t>3TYLB5JNXRT029938</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -4859,7 +4681,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4871,69 +4693,77 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD OFF-ROAD Double Cab</t>
+          <t>New 2024 Toyota Venza Limited 4D Sport Utility</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46598</v>
+        <v>45738</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TRD OFF-ROAD</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>T168452</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3TYLB5JN8RT031266</t>
+          <t>JTEAAAAH8RJ168452</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Boulder/Black Fabric W/ Smoke Silver</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>AWD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD OFF-ROAD Double Cab</t>
+          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46728</v>
+        <v>46387</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TRD OFF-ROAD</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>TRD Sport</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>T028188</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3TMLB5JN4RM027288</t>
+          <t>3TYLB5JNXRT028188</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bronze Oxide</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Boulder/Black Fabric W/ Smoke Silver</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4945,31 +4775,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
+          <t>New 2024 Toyota Tacoma TRD OFF-ROAD 4D Double Cab</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46797</v>
+        <v>46598</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TRD Sport</t>
+          <t>TRD OFF-ROAD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>T027359</t>
+          <t>T031266</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3TMLB5JN1RM027359</t>
+          <t>3TYLB5JN8RT031266</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4986,32 +4816,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD Sport Double Cab</t>
+          <t>New 2024 Toyota Tacoma TRD OFF-ROAD Double Cab</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46883</v>
+        <v>46728</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TRD Sport</t>
+          <t>TRD OFF-ROAD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3TYLB5JN2RT031747</t>
+          <t>3TMLB5JN4RM027288</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Bronze Oxide</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Boulder/Black Fabric W/ Smoke Silver</t>
+          <t>Boulder/Black Fabric W/Smoke Silver</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5023,233 +4853,233 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Grand Highlander XLE SUV</t>
+          <t>New 2024 Toyota Tacoma TRD Sport Double Cab</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>47095</v>
+        <v>46883</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>TRD Sport</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5TDAAAA54RS017511</t>
+          <t>3TYLB5JN2RT031747</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Storm Cloud</t>
+          <t>Celestial Silver Metallic</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Light Gray Softex®</t>
+          <t>Boulder/Black Fabric W/Smoke Silver</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>4WD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD OFF-ROAD 4D Double Cab</t>
+          <t>New 2024 Toyota Grand Highlander XLE SUV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47097</v>
+        <v>47095</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TRD OFF-ROAD</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>T024806</t>
-        </is>
-      </c>
+          <t>XLE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3TMLB5JN7RM024806</t>
+          <t>5TDAAAA54RS017511</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Storm Cloud</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>Light Gray Softex®</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Grand Highlander XLE 4D Sport Utility</t>
+          <t>New 2024 Toyota Tacoma TRD OFF-ROAD 4D Double Cab</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47449</v>
+        <v>47097</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>TRD OFF-ROAD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>T016886</t>
+          <t>T024806</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5TDAAAA59RS016886</t>
+          <t>3TMLB5JN7RM024806</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Wind Chill Prl</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>4WD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra SR5 4D CrewMax</t>
+          <t>New 2024 Toyota Grand Highlander XLE 4D Sport Utility</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51576</v>
+        <v>47449</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SR5</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>T033464</t>
+          <t>T016886</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5TFLA5AB2RX033464</t>
+          <t>5TDAAAA59RS016886</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Wind Chill Prl</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Blk Fabric</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>New 2024 Toyota RAV4 Prime SE 4D Sport Utility</t>
+          <t>New 2024 Toyota Tundra SR5 4D CrewMax</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48705</v>
+        <v>51576</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SR5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>T195349</t>
+          <t>T033464</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>JTMAB3FV4RD195349</t>
+          <t>5TFLA5AB2RX033464</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Blk Fabric</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>AWD</t>
+          <t>RWD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Grand Highlander XLE SUV</t>
+          <t>New 2024 Toyota RAV4 Prime SE 4D Sport Utility</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50176</v>
+        <v>48705</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>XLE</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>T195349</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5TDAAAB51RS063733</t>
+          <t>JTMAB3FV4RD195349</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Light Gray Softex®</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5261,100 +5091,100 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Highlander Limited SUV</t>
+          <t>New 2024 Toyota Grand Highlander XLE SUV</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50249</v>
+        <v>50176</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5TDKDRAH7RS545211</t>
+          <t>5TDAAAB51RS063733</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Midnight Black Metallic</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Graphite Leather</t>
+          <t>Light Gray Softex®</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>AWD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD Off-Road i-FORCE MAX Double Cab</t>
+          <t>New 2024 Toyota Highlander Limited 4D Sport Utility</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51241</v>
+        <v>50249</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRD Off-Road i-FORCE MAX</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>T545211</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3TYLC5LN6RT001354</t>
+          <t>5TDKDRAH7RS545211</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fabric 3 Boulder/Black (Smoke Silver)</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>New 2024 Toyota 4Runner SR5 Premium 4D Sport Utility</t>
+          <t>New 2024 Toyota Tacoma TRD Off-Road i-FORCE MAX Double Cab</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53440</v>
+        <v>51946</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SR5 Premium</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>T284640</t>
-        </is>
-      </c>
+          <t>TRD Off-Road i-FORCE MAX</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>JTENU5JR3R6284640</t>
+          <t>3TYLC5LN6RT001354</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5364,7 +5194,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Fabric 3 Boulder/Black (Smoke Silver)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5431,12 +5261,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>T283873</t>
+          <t>T286257</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>JTENU5JRXR6283873</t>
+          <t>JTENU5JR3R6286257</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5458,114 +5288,118 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra SR5 4D Double Cab</t>
+          <t>New 2024 Toyota Grand Highlander Limited 4D Sport Utility</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>57104</v>
+        <v>55971</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SR5</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>T180435</t>
+          <t>T017693</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5TFLA5DA2RX180435</t>
+          <t>5TDAAAA53RS017693</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4WD</t>
+          <t>FWD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Grand Highlander Limited 4D Sport Utility</t>
+          <t>New 2024 Toyota Sienna XSE 7 Passenger 4D Passenger Van</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>55971</v>
+        <v>56238</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>XSE 7 Passenger</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>T017693</t>
+          <t>T137131</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5TDAAAA53RS017693</t>
+          <t>5TDCSKFC9RS137131</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>AWD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Sienna XSE Mini-Van</t>
+          <t>New 2024 Toyota Crown Platinum 4D Sedan</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>56238</v>
+        <v>56248</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>XSE</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>T007412</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5TDCSKFC9RS137131</t>
+          <t>JTDAFAAF2R3007412</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ice Cap</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Black Leather</t>
+          <t>Blk Lth</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5618,26 +5452,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Crown Platinum 4D Sedan</t>
+          <t>New 2024 Toyota Tacoma TRD OFF-ROAD 4D Double Cab</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>56248</v>
+        <v>56628</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>TRD OFF-ROAD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>T007412</t>
+          <t>T029098</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>JTDAFAAF2R3007412</t>
+          <t>3TMLB5JN9RM029098</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5647,44 +5481,48 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Blk Lth</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>AWD</t>
+          <t>4WD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma TRD OFF-ROAD Double Cab</t>
+          <t>New 2024 Toyota Tundra SR5 4D CrewMax</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>56628</v>
+        <v>60702</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TRD OFF-ROAD</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>SR5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>T213213</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3TMLB5JN9RM029098</t>
+          <t>5TFLA5DB7RX213213</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Black Softex</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5696,32 +5534,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tacoma Limited Double Cab</t>
+          <t>New 2024 Toyota Land Cruiser 1958 SUV</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>56653</v>
+        <v>58489</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Land Cruiser 1958</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3TYLB5JN4RT033242</t>
+          <t>JTEABFAJ3RK008261</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Wind Chill Pearl []</t>
+          <t>Meteor Shower</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Boulder Softex</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5737,7 +5575,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>58648</v>
+        <v>59122</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
@@ -5748,7 +5586,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>JTEABFAJ3RK008261</t>
+          <t>JTEABFAJ1RK008842</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5770,32 +5608,36 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Land Cruiser 1958 SUV</t>
+          <t>New 2024 Toyota Tundra Limited 4D CrewMax</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>59122</v>
+        <v>62618</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Land Cruiser 1958</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>T199595</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>JTEABFAJ1RK008842</t>
+          <t>5TFJA5DB9RX199595</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Meteor Shower</t>
+          <t>Bluprint</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5811,7 +5653,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>62618</v>
+        <v>63167</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
@@ -5821,17 +5663,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T199595</t>
+          <t>T208201</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5TFJA5DB9RX199595</t>
+          <t>5TFJA5DB9RX208201</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bluprint</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5848,31 +5690,31 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Limited 4D CrewMax</t>
+          <t>New 2024 Toyota Tundra SR5 4D CrewMax</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>63167</v>
+        <v>64468</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>SR5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>T208201</t>
+          <t>T191279</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5TFJA5DB9RX208201</t>
+          <t>5TFLA5DB2RX191279</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5889,26 +5731,26 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra SR5 4D CrewMax</t>
+          <t>New 2024 Toyota Tundra Limited 4D CrewMax</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>64468</v>
+        <v>65547</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SR5</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>T191279</t>
+          <t>T186196</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5TFLA5DB2RX191279</t>
+          <t>5TFJA5DB7RX186196</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5918,7 +5760,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5930,11 +5772,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Limited 4D CrewMax</t>
+          <t>New 2024 Toyota Tundra Limited 4D Crew Cab</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>64948</v>
+        <v>68219</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
@@ -5944,22 +5786,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T186540</t>
+          <t>T64897</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>5TFJA5DB7RX186540</t>
+          <t>5TFJC5DB5RX064897</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Blk</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5971,11 +5813,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Limited 4D CrewMax</t>
+          <t>New 2024 Toyota Tundra Limited 4D Crew Cab</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>65547</v>
+        <v>69576</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
@@ -5985,22 +5827,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>T186196</t>
+          <t>T050319</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5TFJA5DB7RX186196</t>
+          <t>5TFJC5DB5RX050319</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>Boulder</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -6012,36 +5854,36 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Limited 4D Crew Cab</t>
+          <t>New 2024 Toyota Tundra Platinum 4D CrewMax</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>68219</v>
+        <v>70706</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>T64897</t>
+          <t>T193215</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5TFJC5DB5RX064897</t>
+          <t>5TFNA5DB7RX193215</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Blk</t>
+          <t>Blk Lth</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6053,36 +5895,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Limited 4D Crew Cab</t>
+          <t>New 2024 Toyota Tundra 1794 4D CrewMax</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>69576</v>
+        <v>71844</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>T050319</t>
+          <t>T203932</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5TFJC5DB5RX050319</t>
+          <t>5TFMA5DB5RX203932</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Gray</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Boulder</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6094,36 +5936,36 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Platinum 4D CrewMax</t>
+          <t>New 2024 Toyota Tundra Limited 4D Crew Cab</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>70706</v>
+        <v>71887</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>T193215</t>
+          <t>T077621</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5TFNA5DB7RX193215</t>
+          <t>5TFWC5DBXRX077621</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Wind Chill Prl</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Blk Lth</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6135,36 +5977,36 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra 1794 4D CrewMax</t>
+          <t>New 2024 Toyota Tundra Platinum 4D CrewMax</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>71844</v>
+        <v>72729</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>T203932</t>
+          <t>T211848</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5TFMA5DB5RX203932</t>
+          <t>5TFWA5DB0RX211848</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Gray</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6176,36 +6018,36 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Limited 4D Crew Cab</t>
+          <t>New 2024 Toyota Land Cruiser Base 4D Sport Utility</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>71887</v>
+        <v>70288</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>T077621</t>
+          <t>T003638</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5TFWC5DBXRX077621</t>
+          <t>JTEABFAJXRK003638</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Wind Chill Prl</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6217,32 +6059,36 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Land Cruiser SUV</t>
+          <t>New 2024 Toyota Land Cruiser Base 4D Sport Utility</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>70288</v>
+        <v>70713</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LAND CRUISER</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>T003849</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>JTEABFAJXRK003638</t>
+          <t>JTEABFAJ1RK003849</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Wind Chill Prl</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Black Leather</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6254,32 +6100,36 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Land Cruiser SUV</t>
+          <t>New 2024 Toyota Land Cruiser Base 4D Sport Utility</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>70713</v>
+        <v>70879</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LAND CRUISER</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>T002422</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>JTEABFAJ1RK003849</t>
+          <t>JTEABFAJ6R5002422</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Wind Chill Pearl []</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Black Leather</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6291,36 +6141,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Land Cruiser Base 4D Sport Utility</t>
+          <t>New 2024 Toyota Land Cruiser SUV</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>70879</v>
+        <v>71528</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Base</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>T002422</t>
-        </is>
-      </c>
+          <t>LAND CRUISER</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>JTEABFAJ6R5002422</t>
+          <t>JTEABFAJ5RK004924</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Underground</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Black Leather</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6332,32 +6178,36 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Land Cruiser SUV</t>
+          <t>New 2024 Toyota Tundra 1794 EDITION 4D Crew Cab</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>71528</v>
+        <v>74578</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LAND CRUISER</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>1794 EDITION</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>T005747</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>JTEABFAJ5RK004924</t>
+          <t>5TFMC5EC4RX005747</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Black Leather</t>
+          <t>Saddle Tan Lth</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6369,36 +6219,36 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra 1794 EDITION 4D Crew Cab</t>
+          <t>New 2024 Toyota Tundra Platinum 4D Crew Cab</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>74578</v>
+        <v>74666</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1794 EDITION</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>T005747</t>
+          <t>T077421</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5TFMC5EC4RX005747</t>
+          <t>5TFNC5DB8RX077421</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Wind Chill Prl</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Saddle Tan Lth</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6410,36 +6260,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Platinum 4D Crew Cab</t>
+          <t>New 2024 Toyota Land Cruiser SUV</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>74666</v>
+        <v>71953</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>T077421</t>
-        </is>
-      </c>
+          <t>LAND CRUISER</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5TFNC5DB8RX077421</t>
+          <t>JTEABFAJ8R5001725</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Wind Chill Prl</t>
+          <t>Wind Chill Pearl []</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>Black Leather</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6451,69 +6297,77 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra Platinum CrewMax</t>
+          <t>New 2024 Toyota Tundra 1794 EDITION 4D Crew Cab</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>72729</v>
+        <v>75061</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>1794 EDITION</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>T078053</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5TFWA5DB0RX211848</t>
+          <t>5TFMC5DB5RX078053</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Black Leather-trimmed</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4x4</t>
+          <t>4WD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Land Cruiser SUV</t>
+          <t>New 2024 Toyota Tundra 1794 EDITION 4D Crew Cab</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>71953</v>
+        <v>75486</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LAND CRUISER</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>1794 EDITION</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>T076372</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>JTEABFAJ8R5001725</t>
+          <t>5TFMC5DB0RX076372</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Wind Chill Pearl []</t>
+          <t>Wind Chill Prl</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Black Leather</t>
+          <t>Saddle Tan Lth</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6529,7 +6383,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>75061</v>
+        <v>76109</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
@@ -6539,12 +6393,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>T078053</t>
+          <t>T077158</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5TFMC5DB5RX078053</t>
+          <t>5TFMC5DB3RX077158</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6566,36 +6420,36 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra 1794 EDITION 4D Crew Cab</t>
+          <t>New 2024 Toyota Sequoia Platinum 4D Sport Utility</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>75486</v>
+        <v>81167</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1794 EDITION</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>T076372</t>
+          <t>T043046</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>5TFMC5DB0RX076372</t>
+          <t>7SVAAABA7RX043046</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Wind Chill Prl</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Saddle Tan Lth</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6607,26 +6461,26 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Tundra 1794 EDITION 4D Crew Cab</t>
+          <t>New 2024 Toyota Sequoia Capstone 4D Sport Utility</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>76109</v>
+        <v>84283</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1794 EDITION</t>
+          <t>Capstone</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>T077158</t>
+          <t>T043245</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5TFMC5DB3RX077158</t>
+          <t>7SVAAABA2RX043245</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6636,7 +6490,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6648,115 +6502,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>New 2024 Toyota Sequoia Platinum SUV</t>
+          <t>New 2024 Toyota Sequoia Capstone SUV</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>81167</v>
+        <v>85971</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Capstone</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7SVAAABA7RX043046</t>
+          <t>7SVAAABA1RX043978</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Wind Chill Pearl []</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Black Leather</t>
+          <t>Black And White Semi-aniline</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>4x4</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>New 2024 Toyota Sequoia Capstone SUV</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>84283</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Capstone</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>7SVAAABA2RX043245</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Midnight Black Metallic</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Black And White Semi-aniline</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>4x4</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>New 2024 Toyota Sequoia Capstone 4D Sport Utility</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>85576</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Capstone</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>T042300</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>7SVAAABA1RX042300</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Wind Chill Prl</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>4WD</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6782,7 +6558,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024 COROLLA HYBRID LE</t>
+          <t>2024 Corolla LE Upgrade</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -6797,39 +6573,39 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>1.8L 4cyl.</t>
+          <t>2L 4cyl.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$29669</t>
+          <t>$29559</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>JTDBCMFE8R3056273</t>
+          <t>5YFB4MDE2RP184614</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>056273</t>
+          <t>184614</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Classic Silver Metallic</t>
+          <t>Midnight Black Metallic</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024 COROLLA HYBRID SE AWD</t>
+          <t>2024 COROLLA HYBRID LE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All Wheel Drive</t>
+          <t>Front Wheel Drive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6844,27 +6620,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$33329</t>
+          <t>$29669</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>JTDBDMHE0RJ009454</t>
+          <t>JTDBCMFE8R3056273</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9454</v>
+        <v>56273</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Classic Silver Metallic</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024 COROLLA CROSS LE AWD</t>
+          <t>2024 COROLLA HYBRID SE AWD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6879,25 +6655,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2L 4cyl.</t>
+          <t>1.8L 4cyl.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$34139</t>
+          <t>$33329</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7MUCAABG3RV100930</t>
+          <t>JTDBDMHE0RJ009454</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>100930</v>
+        <v>9454</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sonic Silver Metallic</t>
+          <t>Midnight Black Metallic</t>
         </is>
       </c>
     </row>
@@ -6929,11 +6705,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7MUCAABG0RV098330</t>
+          <t>7MUCAABG3RV100930</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>98330</v>
+        <v>100930</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -6944,7 +6720,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024 COROLLA CROSS LE PREMIUM AWD</t>
+          <t>2024 COROLLA CROSS LE AWD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6964,27 +6740,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$35819</t>
+          <t>$34139</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7MUBAABG3RV099614</t>
+          <t>7MUCAABG0RV098330</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>99614</v>
+        <v>98330</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Barcelona Red Metallic</t>
+          <t>Sonic Silver Metallic</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 RAV4 LE</t>
+          <t>2024 COROLLA CROSS LE AWD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6999,25 +6775,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>2L 4cyl.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$36199</t>
+          <t>$34139</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2T3B1RFVXRC452917</t>
+          <t>7MUCAABG3RV101964</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>452917</v>
+        <v>101964</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>Jet Black Mica</t>
         </is>
       </c>
     </row>
@@ -7064,7 +6840,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024 Corolla Cross Hybrid SE</t>
+          <t>2024 RAV4 LE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7079,32 +6855,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2L 4cyl.</t>
+          <t>2.5L 4cyl.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$37639</t>
+          <t>$36199</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7MUFBABG5RV041504</t>
+          <t>2T3B1RFVXRC452917</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>41504</v>
+        <v>452917</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Celestite</t>
+          <t>LE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024 RAV4 XLE</t>
+          <t>2024 Corolla Cross Hybrid SE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7119,25 +6895,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>2L 4cyl.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$39899</t>
+          <t>$37639</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2T3R1RFV0RC453685</t>
+          <t>7MUFBABG5RV041504</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>453685</v>
+        <v>41504</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>Celestite</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7000,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024 RAV4 Hybrid XLE</t>
+          <t>2025 Camry Hybrid SE Upgrade AWD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7244,27 +7020,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>$42099</t>
+          <t>$41399</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2T3RWRFV7RW227983</t>
+          <t>4T1DBADK1SU503055</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>227983</v>
+        <v>503055</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>Heavy Metal</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024 RAV4 XLE PREMIUM</t>
+          <t>2023 Prius Limited AWD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7279,32 +7055,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>2L 4cyl.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>$42194</t>
+          <t>$45969</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2T3R1RFV7RW459742</t>
+          <t>JTDADABU5P3001720</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>459742</v>
+        <v>1720</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XLE Premium</t>
+          <t>Reservoir Blue</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024 RAV4 XLE PREMIUM</t>
+          <t>2024 RAV4 Hybrid XSE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7324,27 +7100,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>$42194</t>
+          <t>$47054</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2T3R1RFV9RW465610</t>
+          <t>2T35WRFVXRW226471</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>465610</v>
+        <v>226471</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XLE Premium</t>
+          <t>XSE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023 Prius Limited AWD</t>
+          <t>2024 RAV4 LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7359,32 +7135,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2L 4cyl.</t>
+          <t>2.5L 4cyl.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>$45969</t>
+          <t>$47799</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>JTDADABU5P3001720</t>
+          <t>2T3D1RFV4RC437550</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1720</v>
+        <v>437550</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Reservoir Blue</t>
+          <t>Limited</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024 RAV4 Hybrid XSE</t>
+          <t>2024 RAV4 LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7404,27 +7180,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$47054</t>
+          <t>$47799</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2T35WRFVXRW226471</t>
+          <t>2T3D1RFV1RC458873</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>226471</v>
+        <v>458873</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XSE</t>
+          <t>Limited</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024 RAV4 LIMITED</t>
+          <t>2024 GR Corolla CORE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7434,37 +7210,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Automatic</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>1.6L turbo 3cyl.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>$47799</t>
+          <t>$49984</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2T3D1RFV1RC458873</t>
+          <t>JTNABAAE4RA010970</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>458873</v>
+        <v>10970</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Supersonic Red</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024 RAV4 LIMITED</t>
+          <t>2024 CROWN LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7484,27 +7260,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>$47799</t>
+          <t>$55224</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2T3D1RFV4RC437550</t>
+          <t>JTDAAAAF1R3029142</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>437550</v>
+        <v>29142</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Oxygen White</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024 GR Corolla CORE</t>
+          <t>2023 Highlander PLATINUM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7514,42 +7290,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Automatic</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.6L turbo 3cyl.</t>
+          <t>2.4L TURBO 4cyl.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$49984</t>
+          <t>$58809</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>JTNABAAE4RA010970</t>
+          <t>5TDKDRBH0PS026898</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10970</v>
+        <v>26898</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Supersonic Red</t>
+          <t>Blueprint</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024 Tacoma 4X4 TRD Sport</t>
+          <t>2024 Highlander hybrid LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Four-Wheel Drive</t>
+          <t>All Wheel Drive</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7559,32 +7335,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.4L TURBO 4cyl.</t>
+          <t>2.5L 4cyl.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>$53099</t>
+          <t>$61354</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3TYLB5JN8RT025161</t>
+          <t>5TDEBRCH8RS622684</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>25161</v>
+        <v>622684</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Wind Chill Pearl</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024 Tacoma 4X4 TRD Sport</t>
+          <t>2024 4Runner LIMITED</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7599,37 +7375,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.4L TURBO 4cyl.</t>
+          <t>4L 6cyl.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>$53099</t>
+          <t>$63889</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3TYLB5JN4RT026405</t>
+          <t>JTEKU5JR0R6280953</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>26405</v>
+        <v>280953</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Celestial Silver Metallic</t>
+          <t>Midnight Black Metallic</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024 RAV4 Prime XSE</t>
+          <t>2024 TUNDRA 4X4 TRD OFF ROAD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>All Wheel Drive</t>
+          <t>Four-Wheel Drive</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7639,37 +7415,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>3.5L TURBO 6cyl.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>$59039</t>
+          <t>$67169</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>JTMGB3FV5RD203534</t>
+          <t>5TFLA5EC3RX029751</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>203534</v>
+        <v>29751</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>XSE</t>
+          <t>TRD OFF ROAD WITH TOW MIRRORS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024 CROWN LIMITED</t>
+          <t>2023 GR Supra 3.0L PREMIUM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>All Wheel Drive</t>
+          <t>Rear Wheel Drive</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7679,37 +7455,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>3L TURBO 6cyl.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>$55224</t>
+          <t>$72439</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>JTDAAAAF1R3029142</t>
+          <t>WZ1DB0G05PW061354</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>29142</v>
+        <v>61354</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Oxygen White</t>
+          <t>Stratosphere</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023 Highlander PLATINUM</t>
+          <t>2024 TUNDRA HYBRID LIMITED NIGHTSHADE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>All Wheel Drive</t>
+          <t>Four-Wheel Drive</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7719,21 +7495,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.4L TURBO 4cyl.</t>
+          <t>3.5L TURBO 6cyl.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>$58809</t>
+          <t>$76439</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5TDKDRBH0PS026898</t>
+          <t>5TFWC5EC4RX005563</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>26898</v>
+        <v>5563</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -7744,7 +7520,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024 TUNDRA 4X4 SR5</t>
+          <t>2023 Tundra PLATINUM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7764,27 +7540,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>$63499</t>
+          <t>$79539</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5TFLA5DB3RX198080</t>
+          <t>5TFMA5DB1PX101069</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>198080</v>
+        <v>101069</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Blueprint</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024 4Runner LIMITED</t>
+          <t>2024 TUNDRA HYBRID TRD PRO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7799,263 +7575,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4L 6cyl.</t>
+          <t>3.5L TURBO 6cyl.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>$63889</t>
+          <t>$89959</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>JTEKU5JR0R6280953</t>
+          <t>5TFPC5DB7RX082120</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>280953</v>
+        <v>82120</v>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>Midnight Black Metallic</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2024 TUNDRA 4X4 TRD OFF ROAD</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Four-Wheel Drive</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.5L TURBO 6cyl.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$67169</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5TFLA5EC3RX029751</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>29751</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>TRD OFF ROAD WITH TOW MIRRORS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2024 GRAND HIGHLANDER HYBRID Platinum Hybrid MAX</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>All Wheel Drive</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.4L TURBO 4cyl.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$68754</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5TDADAB50RS009184</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>9184</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>7 PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2023 GR Supra 3.0L PREMIUM</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Rear Wheel Drive</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3L TURBO 6cyl.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$72439</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>WZ1DB0G05PW061354</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>61354</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Stratosphere</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2024 TUNDRA HYBRID LIMITED NIGHTSHADE</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Four-Wheel Drive</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.5L TURBO 6cyl.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$76439</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5TFWC5EC4RX005563</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>5563</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Blueprint</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2023 Tundra PLATINUM</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Four-Wheel Drive</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.5L TURBO 6cyl.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$79539</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5TFMA5DB1PX101069</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>101069</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Blueprint</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2024 TUNDRA HYBRID TRD PRO</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Four-Wheel Drive</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.5L TURBO 6cyl.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$89959</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5TFPC5DB7RX082120</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>82120</v>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>White</t>
         </is>
@@ -8183,7 +7719,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26 KM. Auto.</t>
+          <t>21 KM. Auto.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8198,7 +7734,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N452447-NEW</t>
+          <t>N457076-NEW</t>
         </is>
       </c>
     </row>
@@ -8213,12 +7749,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21 KM. Auto.</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: White</t>
+          <t xml:space="preserve"> Ext: Magnetic Grey Metallic</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8228,27 +7764,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N456310-NEW</t>
+          <t>N461302-NEW</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 LE AWD</t>
+          <t>Toyota 2024 GR86 PREMIUM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35180</v>
+        <v>37565</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21 KM. Auto.</t>
+          <t>10 KM. Man.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
+          <t xml:space="preserve"> Ext: Track bRed</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8258,27 +7794,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N457076-NEW</t>
+          <t>N758031-NEW</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 LE AWD</t>
+          <t>Toyota 2024 RAV4 Hybrid HYBRID LE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35180</v>
+        <v>37980</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Auto.</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Magnetic Grey Metallic</t>
+          <t xml:space="preserve"> Ext: White</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8288,27 +7824,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N461302-NEW</t>
+          <t>N230370-NEW</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toyota 2024 GR86 PREMIUM</t>
+          <t>Toyota 2024 RAV4 Hybrid LE AWD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37565</v>
+        <v>37980</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Man.</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Track bRed</t>
+          <t xml:space="preserve"> Ext: Magnetic Grey Metallic</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8318,27 +7854,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N758031-NEW</t>
+          <t>N230575-NEW</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 Hybrid HYBRID LE</t>
+          <t>Toyota 2025 Camry Hybrid SE UPGRADE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37980</v>
+        <v>38260</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>21 KM. CVT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: White</t>
+          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8348,27 +7884,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N230370-NEW</t>
+          <t>N505873-NEW</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Toyota 2025 Camry Hybrid SE UPGRADE</t>
+          <t>Toyota 2024 RAV4 XLE AWD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38260</v>
+        <v>38880</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21 KM. CVT</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
+          <t xml:space="preserve"> Ext: Silver Sky Metallic</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8378,27 +7914,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N505873-NEW</t>
+          <t>N472051-NEW</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 XLE AWD</t>
+          <t>Toyota 2024 Prius XLE AWD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38880</v>
+        <v>39365</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Auto.</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Silver Sky Metallic</t>
+          <t xml:space="preserve"> Ext: Wind Chill Pearl</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8408,18 +7944,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N472051-NEW</t>
+          <t>N014217-NEW</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Toyota 2024 Prius XLE AWD</t>
+          <t>Toyota 2024 RAV4 Hybrid XLE AWD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39365</v>
+        <v>41080</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -8428,7 +7964,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Wind Chill Pearl</t>
+          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8438,27 +7974,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N014217-NEW</t>
+          <t>N230416-NEW</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 Hybrid XLE AWD</t>
+          <t>Toyota 2024 RAV4 Hybrid XSE AWD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41080</v>
+        <v>48595</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25 KM. CVT</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Silver Sky Metallic</t>
+          <t xml:space="preserve"> Ext: Wind Chill Pearl with Black Roof</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8468,22 +8004,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N226697-NEW</t>
+          <t>N229462-NEW</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 Hybrid XLE AWD</t>
+          <t>Toyota 2024 Highlander XLE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41080</v>
+        <v>51680</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -8498,27 +8034,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N230416-NEW</t>
+          <t>N566515-NEW</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 Hybrid XSE AWD</t>
+          <t>Toyota 2024 RAV4 Prime XSE AWD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48595</v>
+        <v>58815</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Auto.</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Black</t>
+          <t xml:space="preserve"> Ext: Supersonic Red with Black Roof</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8528,18 +8064,18 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N229462-NEW</t>
+          <t>N207973-NEW</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Toyota 2024 Highlander XLE</t>
+          <t>Toyota 2024 4Runner Base</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51680</v>
+        <v>59830</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -8548,7 +8084,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
+          <t xml:space="preserve"> Ext: Classic Silver Metallic</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -8558,37 +8094,37 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N566515-NEW</t>
+          <t>N293969-NEW</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 Prime XSE AWD</t>
+          <t>Toyota 2024 Tacoma DOUBLE CAB AT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58815</v>
+        <v>60180</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Supersonic Red with Black Roof</t>
+          <t xml:space="preserve"> Ext: Underground</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Int: Black</t>
+          <t xml:space="preserve"> Int: Seat: BLACK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N207973-NEW</t>
+          <t>N032018-NEW</t>
         </is>
       </c>
     </row>
@@ -8659,16 +8195,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62480</v>
+        <v>62840</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21 KM. Auto.</t>
+          <t>10 KM. Auto.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Magnetic Grey Metallic</t>
+          <t xml:space="preserve"> Ext: White</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -8678,14 +8214,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N202500-NEW</t>
+          <t>N031155-NEW</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX TRD OFFROAD</t>
+          <t>Toyota 2024 Tundra CREWMAX SR5 L</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8693,7 +8229,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26 KM. Auto.</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -8708,18 +8244,18 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N029859-NEW</t>
+          <t>N032549-NEW</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX SR5</t>
+          <t>Toyota 2024 Tundra CREWMAX SR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62840</v>
+        <v>64790</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -8728,7 +8264,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: White</t>
+          <t xml:space="preserve"> Ext: Blueprint</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -8738,7 +8274,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N031155-NEW</t>
+          <t>N206947-NEW</t>
         </is>
       </c>
     </row>
@@ -8749,16 +8285,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62840</v>
+        <v>65160</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auto.</t>
+          <t>10 KM. Auto.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Black</t>
+          <t xml:space="preserve"> Ext: Lunar Rock</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8768,18 +8304,18 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>N032549-NEW</t>
+          <t>N031192-NEW</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX SR</t>
+          <t>Toyota 2024 Tundra CREWMAX TRD OFFROAD</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64790</v>
+        <v>65160</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -8788,7 +8324,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Blueprint</t>
+          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -8798,7 +8334,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>N206947-NEW</t>
+          <t>N032173-NEW</t>
         </is>
       </c>
     </row>
@@ -8828,18 +8364,18 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N031192-NEW</t>
+          <t>N032832-NEW</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX TRD OFFROAD</t>
+          <t>Toyota 2024 Tacoma HV DOUBLE CAB</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65160</v>
+        <v>67135</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -8848,7 +8384,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
+          <t xml:space="preserve"> Ext: Solar Octane</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -8858,27 +8394,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N032173-NEW</t>
+          <t>N002865-NEW</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tacoma HV DOUBLE CAB</t>
+          <t>Toyota 2024 Tundra CREWMAX LIMITED NIGHTSHADE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67135</v>
+        <v>72275</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Auto.</t>
+          <t>21 KM. Auto.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Solar Octane</t>
+          <t xml:space="preserve"> Ext: Supersonic Red</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8888,22 +8424,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N002865-NEW</t>
+          <t>N028411-NEW</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX LIMITED NIGHTSHADE</t>
+          <t>Toyota 2024 Tundra CREWMAX LIMITED TRD OFFROAD</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72275</v>
+        <v>74845</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21 KM. Auto.</t>
+          <t>25 KM. Auto.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -8918,27 +8454,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N028411-NEW</t>
+          <t>N028098-NEW</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX LIMITED TRD OFFROAD</t>
+          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED NIGHTSHADE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>74505</v>
+        <v>75380</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21 KM. Auto.</t>
+          <t>25 KM. Auto.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Wind Chill Pearl</t>
+          <t xml:space="preserve"> Ext: Blueprint</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8948,27 +8484,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N195542-NEW</t>
+          <t>N053357-NEW</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX LIMITED TRD OFFROAD</t>
+          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED NIGHTSHADE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>74845</v>
+        <v>75675</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25 KM. Auto.</t>
+          <t>21 KM. Auto.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Supersonic Red</t>
+          <t xml:space="preserve"> Ext: Wind Chill Pearl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -8978,27 +8514,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N028098-NEW</t>
+          <t>N007840-NEW</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED NIGHTSHADE</t>
+          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED TRD OFFROAD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75380</v>
+        <v>78390</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>25 KM. Auto.</t>
+          <t>22 KM. Auto.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Blueprint</t>
+          <t xml:space="preserve"> Ext: Lunar Rock</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9008,27 +8544,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N053357-NEW</t>
+          <t>N007929-NEW</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED NIGHTSHADE</t>
+          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75675</v>
+        <v>78390</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21 KM. Auto.</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Wind Chill Pearl</t>
+          <t xml:space="preserve"> Ext: Magnetic Grey Metallic</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9038,27 +8574,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N007840-NEW</t>
+          <t>N008094-NEW</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED TRD OFFROAD</t>
+          <t>Toyota 2024 Tundra CREWMAX PLATINUM</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78390</v>
+        <v>81120</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22 KM. Auto.</t>
+          <t>Auto.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ext: Lunar Rock</t>
+          <t xml:space="preserve"> Ext: Magnetic Grey Metallic</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9068,7 +8604,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N007929-NEW</t>
+          <t>N214326-NEW</t>
         </is>
       </c>
     </row>
@@ -9173,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9228,32 +8764,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    Toyota Prius</t>
+          <t xml:space="preserve">                    Toyota GR Corolla</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$42264</t>
+          <t>$59309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P4002</t>
+          <t>C4022</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Variable / CVT</t>
+          <t>Manual / Standard</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4-cylinder</t>
+          <t>3-cylinder</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-prius/11160493</t>
+          <t>https://trimactoyota.ca/inventory/2024-toyota-gr-corolla/11423738</t>
         </is>
       </c>
     </row>
@@ -9272,17 +8808,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    Toyota RAV4</t>
+          <t xml:space="preserve">                    Toyota Corolla Cross</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$41579</t>
+          <t>$40419</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R4064</t>
+          <t>D4016</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -9297,7 +8833,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11381003</t>
+          <t>https://trimactoyota.ca/inventory/2024-toyota-corolla-cross/11449436</t>
         </is>
       </c>
     </row>
@@ -9316,32 +8852,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    Toyota GR Corolla</t>
+          <t xml:space="preserve">                    Toyota Prius</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$59309</t>
+          <t>$42264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C4022</t>
+          <t>P4002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Manual / Standard</t>
+          <t>Variable / CVT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3-cylinder</t>
+          <t>4-cylinder</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-gr-corolla/11423738</t>
+          <t>https://trimactoyota.ca/inventory/2024-toyota-prius/11160493</t>
         </is>
       </c>
     </row>
@@ -9360,17 +8896,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    Toyota Corolla Cross</t>
+          <t xml:space="preserve">                    Toyota Prius</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$37374</t>
+          <t>$46504</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D4014</t>
+          <t>P4001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9385,7 +8921,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-corolla-cross/11423732</t>
+          <t>https://trimactoyota.ca/inventory/2024-toyota-prius/10995248</t>
         </is>
       </c>
     </row>
@@ -9404,17 +8940,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    Toyota Tundra</t>
+          <t xml:space="preserve">                    Toyota RAV4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$75879</t>
+          <t>$39379</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F4001</t>
+          <t>R4070</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9424,320 +8960,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6-cylinder</t>
+          <t>4-cylinder</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-tundra/11193697</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota RAV4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>$41579</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>R4058</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Variable / CVT</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11358848</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota Corolla</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>$29039</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C4020</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Variable / CVT</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-corolla/11405782</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota RAV4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>$38479</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>R4069</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11427152</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota Prius</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>$46504</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>P4001</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Variable / CVT</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-prius/10995248</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota RAV4</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>$39634</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>R4066</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11409778</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota RAV4</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>$35679</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>R4068</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Automatic</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11423729</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024 </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Toyota Corolla Cross</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>$33619</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D4015</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Variable / CVT</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4-cylinder</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://trimactoyota.ca/inventory/2024-toyota-corolla-cross/11423735</t>
+          <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11439689</t>
         </is>
       </c>
     </row>
@@ -9752,7 +8980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9805,65 +9033,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024ToyotaSequoia</t>
+          <t>2019ToyotaC-HR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83545</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wind Chill Pearl (White)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TrimLimited</t>
-        </is>
-      </c>
+          <t>Silver (Gray)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TH44056</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4-Wheel drive</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Hybrid</t>
-        </is>
-      </c>
+          <t>THU15723</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024ToyotaTundra</t>
+          <t>2024ToyotaLand Cruiser</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72220</v>
+        <v>69290</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Magnetic Grey Metallic</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TrimLimited</t>
+          <t>Trim1958</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TH44058</t>
+          <t>TH44083</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9878,32 +9090,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024Toyota4Runner</t>
+          <t>2024ToyotaTundra</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61095</v>
+        <v>72220</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wind Chill Pearl (White)</t>
+          <t>Magnetic Grey Metallic</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trim4WD</t>
+          <t>TrimLimited</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TH44015</t>
+          <t>TH44058</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9925,25 +9137,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024ToyotaRAV4</t>
+          <t>2024ToyotaCrown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40550</v>
+        <v>51990</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Magnetic Grey Metallic</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TrimTrail</t>
+          <t>TrimLimited</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TH43958</t>
+          <t>TH43894</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -9958,22 +9170,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Hybrid</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024ToyotaCrown</t>
+          <t>2024ToyotaRAV4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51990</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Magnetic Grey Metallic</t>
+          <t>Midnight Black Metallic</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9983,7 +9195,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TH43894</t>
+          <t>TH43780</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -9998,7 +9210,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Gas</t>
         </is>
       </c>
     </row>
@@ -10009,7 +9221,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44750</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -10023,7 +9235,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TH43780</t>
+          <t>TH43457</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -10045,25 +9257,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024ToyotaRAV4</t>
+          <t>2023ToyotaPrius</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44750</v>
+        <v>36650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Midnight Black Metallic</t>
+          <t>Guardian Gray</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TrimLimited</t>
+          <t>TrimXLE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TH43457</t>
+          <t>TH42418</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -10077,46 +9289,6 @@
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023ToyotaPrius</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>36650</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Guardian Gray</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TrimXLE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TH42418</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>All-Wheel drive</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>Hybrid</t>
         </is>
@@ -10166,15 +9338,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024 Toyota TUNDRA HYBRID TRD PRO</t>
+          <t>2024 Toyota Land Cruiser Land Cruiser 1958</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89919</v>
+        <v>72299</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>#24135</t>
+          <t>#24151</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10186,15 +9358,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024 Toyota Corolla LE</t>
+          <t>2024 Toyota Tundra TRD OFF ROAD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27571</v>
+        <v>65769</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>#24146</t>
+          <t>#24150</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10206,35 +9378,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra 1794</t>
+          <t>2024 Toyota Tundra TRD OFF ROAD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83299</v>
+        <v>65769</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>#24143</t>
+          <t>#24149</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10 KM | Automatic</t>
+          <t>Automatic</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024 Toyota TUNDRA HYBRID LIMITED NIGHTSHADE</t>
+          <t>2024 Toyota Tundra 1794</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76359</v>
+        <v>83299</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>#24118</t>
+          <t>#24143</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -10246,20 +9418,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra SR</t>
+          <t>2024 Toyota TUNDRA HYBRID LIMITED NIGHTSHADE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67287</v>
+        <v>80536</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>#24005</t>
+          <t>#24118</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Automatic</t>
+          <t>10 KM | Automatic</t>
         </is>
       </c>
     </row>
@@ -10274,7 +9446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10574,33 +9746,6 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Heated Seats (Front)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Anti-Lock Brakes</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Backup Camera</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bluetooth</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cruise Control</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Keyless Entry</t>
         </is>
@@ -10617,7 +9762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10650,10 +9795,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024 Tundra SR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59179</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024 Tundra 1794</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>82719</v>
       </c>
     </row>
@@ -10668,7 +9823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10679,12 +9834,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Toyota 2024 TUNDRA CREWMAX LIMITED Limited</t>
+          <t>Toyota 2024 Tundra CREWMAX LIMITED</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>$69650</t>
+          <t>$72220</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -10704,25 +9859,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stock #24289</t>
+          <t>Stock #24238</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Toyota 2024 TUNDRA CREWMAX SR SR</t>
+          <t>Toyota 2024 TUNDRA HYBRID CREWMAX CAPSTONE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$60450</t>
+          <t>$90690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasoline</t>
+          <t xml:space="preserve"> Hybrid</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -10732,19 +9887,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stock #24298</t>
+          <t>Stock #24199</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Toyota 2024 TUNDRA CREWMAX LIMITED Limited</t>
+          <t>Toyota 2024 VENZA HYBRID LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$72220</t>
+          <t>$52250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -10755,12 +9910,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4x4</t>
+          <t xml:space="preserve"> All Wheel Drive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stock #24156</t>
+          <t>Stock #24152</t>
         </is>
       </c>
     </row>
@@ -10772,7 +9927,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$72220</t>
+          <t>$69650</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -10788,19 +9943,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stock #24238</t>
+          <t>Stock #24289</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Toyota 2024 TUNDRA CREWMAX LIMITED Limited</t>
+          <t>Toyota 2024 RAV4 XLE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$69650</t>
+          <t>$36850</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -10811,30 +9966,30 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4x4</t>
+          <t xml:space="preserve"> All Wheel Drive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stock #24299</t>
+          <t>Stock #24300</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Toyota 2024 TUNDRA HYBRID CREWMAX CAPSTONE</t>
+          <t>Toyota 2024 Tundra CREWMAX LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$90690</t>
+          <t>$72220</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hybrid</t>
+          <t xml:space="preserve"> Gasoline</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -10844,19 +9999,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stock #24199</t>
+          <t>Stock #24156</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Toyota 2024 VENZA HYBRID LIMITED</t>
+          <t>Toyota 2024 COROLLA CROSS LE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$52250</t>
+          <t>$30945</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -10872,19 +10027,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stock #24152</t>
+          <t>Stock #24067</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX PLATINUM L</t>
+          <t>Toyota 2024 Tundra CREWMAX LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$79450</t>
+          <t>$69650</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -10900,19 +10055,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stock #24282</t>
+          <t>Stock #24299</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Toyota 2024 Tundra CREWMAX LIMITED</t>
+          <t>Toyota 2024 RAV4 XLE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$72220</t>
+          <t>$36850</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -10923,24 +10078,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4x4</t>
+          <t xml:space="preserve"> All Wheel Drive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stock #24170</t>
+          <t>Stock #24301</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Toyota 2024 COROLLA CROSS LE AWD LE</t>
+          <t>Toyota 2024 RAV4 XLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$30945</t>
+          <t>$36850</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -10956,7 +10111,63 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stock #24067</t>
+          <t>Stock #24302</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Toyota 2024 Tundra CREWMAX PLATINUM L</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$79450</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gasoline</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4x4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Stock #24282</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Toyota 2024 Tundra CREWMAX LIMITED</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>$72220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gasoline</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4x4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stock #24170</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11240,6 +10451,204 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>VIN 3tylc5ln0rt000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA 4X4 TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>$68857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VIN 5TFLA5DB2RX203480</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024 Tundra LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$75272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VIN 5TFJA5DB0RX000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024 Tundra LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$75612</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VIN 5TFJA5EC0RX000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA 4X4 LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$78657</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VIN 5TFJA5EC4RX030043</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA HYBRID LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$79412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VIN 5TFWA5EC0RX000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA HYBRID LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>$79412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VIN 5TFWC5EC0RX000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA HYBRID LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>$82507</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VIN 5TFWC5EC2RX007943</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA 4X4 PLATINUM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>$88995</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VIN 5TFNA5DB3RX142309</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024 TUNDRA HYBRID CAPSTONE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>$95337</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Four-Wheel DriveAutomatic3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VIN 5TFVC5DB3RX056752</t>
         </is>
       </c>
     </row>
@@ -11408,7 +10817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11419,12 +10828,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>2024 RAV4 LE</t>
+          <t>2025 Corolla Hatchback XSE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>All Wheel Drive</t>
+          <t>Front Wheel Drive</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -11434,39 +10843,44 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>2L 4cyl.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$35203</t>
+          <t>$32</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2T3B1RFVXRC457020</t>
+          <t>348</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>7840</t>
+          <t>JTNK4MBE0P3000000</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Midnight Black Metallic</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025 Camry Hybrid SE</t>
+          <t>2024 RAV4 LE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Front Wheel Drive</t>
+          <t>All Wheel Drive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11481,27 +10895,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$36283</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4T1DAACK4SU016761</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>7841</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>White</t>
+          <t>$35</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>203</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2T3B1RFV0PC000000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>LE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024 RAV4 XLE</t>
+          <t>2024 COROLLA CROSS XLE AWD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -11516,32 +10931,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.5L 4cyl.</t>
+          <t>2L 4cyl.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$38903</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2T3R1RFV9RC456102</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>7830</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>XLE</t>
+          <t>$38</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7MUDAABG0PV000000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Jet Black Mica</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024 RAV4 XLE PREMIUM</t>
+          <t>2024 VENZA HYBRID XLE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -11561,27 +10977,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$40943</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2T3R1RFV8RC456351</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>7838</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>XLE Premium</t>
+          <t>$51</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>98</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>JTEAAAAH0PJ000000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Wind Chill Pearl</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024 TUNDRA 4X4 LIMITED TRD OFF ROAD</t>
+          <t>2024 Tacoma TRD Sport Premium</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -11596,32 +11013,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.5L TURBO 6cyl.</t>
+          <t>2.4L TURBO 4cyl.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$74273</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5TFJA5EC7RX030814</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7835</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Lunar Rock</t>
+          <t>$60</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>458</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3TYLB5JN6RT028544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7847</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Wind Chill Pearl</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 TUNDRA HYBRID CAPSTONE</t>
+          <t>2024 Tundra LIMITED NIGHTSHADE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -11641,20 +11061,103 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$92998</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5TFVC5DB2RX077124</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>7794</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Wind Chill Pearl</t>
+          <t>$72</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>298</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5TFWA5EC1RX000000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Supersonic Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024 Tundra LIMITED TRD OFF ROAD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Four-Wheel Drive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.5L TURBO 6cyl.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$74</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>273</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5TFJA5DB1RX000000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Midnight Black Metallic</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024 TACOMA HYBRID TRD Pro</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Four-Wheel Drive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.4L TURBO 4cyl.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$79</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>43</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>00000000000000000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Terra with Black Roof</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11697,183 +11200,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 XLE</t>
+          <t>2024 Toyota Tundra SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$38,880   Pricing excludes licensing and tax.</t>
+          <t>$64,580   Pricing excludes licensing and tax.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N454691"}]</t>
+          <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N200177"}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024 Toyota Corolla Cross L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>$29,680   Pricing excludes licensing and tax.</t>
-        </is>
-      </c>
+          <t>2024 Toyota Tundra Capstone Hybrid</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Wind Chill Pearl"},{"label":"Interior Colour:","value":"Grey"},{"label":"Stock #:","value":"N095103"}]</t>
+          <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N081995"}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra SR</t>
+          <t>2024 Toyota RAV4 XLE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$64,580   Pricing excludes licensing and tax.</t>
+          <t>$40,920   Pricing excludes licensing and tax.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N200177"}]</t>
+          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N458968"}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra Capstone Hybrid</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2024 Toyota 4Runner BASE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$62,870   Pricing excludes licensing and tax.</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N081995"}]</t>
+          <t>[{"label":"Engine:","value":"Regular Unleaded V-6 4.0 L/241"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N279813"}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 XLE</t>
+          <t>2024 Toyota RAV4 LE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$40,920   Pricing excludes licensing and tax.</t>
+          <t>$35,180   Pricing excludes licensing and tax.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N458968"}]</t>
+          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N458540"}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024 Toyota 4Runner BASE</t>
+          <t>2024 Toyota RAV4 XLE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$62,870   Pricing excludes licensing and tax.</t>
+          <t>$38,880   Pricing excludes licensing and tax.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded V-6 4.0 L/241"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N279813"}]</t>
+          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"White"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N457783"}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 LE</t>
+          <t>2024 Toyota RAV4 Hybrid XLE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$35,180   Pricing excludes licensing and tax.</t>
+          <t>$41,080   Pricing excludes licensing and tax.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N458540"}]</t>
+          <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N229046"}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024 Toyota RAV4 XLE</t>
+          <t>2024 Toyota Tacoma BASE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$38,880   Pricing excludes licensing and tax.</t>
+          <t>$60,180   Pricing excludes licensing and tax.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"White"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N457783"}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024 Toyota Corolla Cross L</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>$31,080   Pricing excludes licensing and tax.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Jet Black Mica"},{"label":"Interior Colour:","value":"Grey"},{"label":"Stock #:","value":"N100273"}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024 Toyota Corolla Cross Hybrid SE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>$36,620   Pricing excludes licensing and tax.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Celestite"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N040409"}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024 Toyota Corolla Cross Hybrid XSE</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>$39,920   Pricing excludes licensing and tax.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Sonic Silver Metallic w/Black Roof"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N040563"}]</t>
+          <t>[{"label":"Engine:","value":"Intercooled Turbo Regular Unleaded I-4 2.4 L/146"},{"label":"Manufacturer Exterior Colour:","value":"Blue Crush Metallic"},{"label":"Stock #:","value":"N028513"}]</t>
         </is>
       </c>
     </row>
@@ -11933,12 +11385,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Toyota 2024 RAV4 in Sydney</t>
+          <t>Toyota 2024 GR86 in Sydney</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36,850</t>
+          <t>35,605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11967,12 +11419,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Toyota 2024 Prius Prime in Sydney</t>
+          <t>Toyota 2024 Corolla Cross in Sydney</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>44,290</t>
+          <t>37,890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11984,12 +11436,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Toyota 2024 Venza Hybrid in Sydney</t>
+          <t>Toyota 2024 Prius Prime in Sydney</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>49,045</t>
+          <t>44,290</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12001,12 +11453,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Toyota 2024 Venza Hybrid in Sydney</t>
+          <t>Toyota 2024 RAV4 Hybrid in Sydney</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>52,505</t>
+          <t>46,950</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12128,7 +11580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12164,7 +11616,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$186*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -12199,7 +11651,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$216*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -12234,7 +11686,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$234*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -12269,7 +11721,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$241*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -12304,7 +11756,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$235*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -12339,7 +11791,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$252*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -12351,52 +11803,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024 Toyota GR Corolla Core 5dr Hatchback</t>
+          <t>2024 Toyota Venza Limited 4dr All-Wheel Drive</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$49209</t>
+          <t>$55034</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota GR Corolla Core 5dr HatchbackCore AWD</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Venza Limited 4dr All-Wheel DriveLimited AWD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our Price:$49</t>
+          <t xml:space="preserve"> Our Price:$55</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$329*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N44433</t>
+          <t>N44745</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024 Toyota Venza Limited 4dr All-Wheel Drive</t>
+          <t>2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger Van</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$55034</t>
+          <t>$55119</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Venza Limited 4dr All-Wheel DriveLimited AWD</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger VanXSE 7-Passenger AWD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -12405,33 +11857,33 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$366*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N44745</t>
+          <t>N44684</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger Van</t>
+          <t>2024 Toyota Venza Limited 4dr All-Wheel Drive</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$55119</t>
+          <t>$55289</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger VanXSE 7-Passenger AWD</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Venza Limited 4dr All-Wheel DriveLimited AWD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -12440,189 +11892,154 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$363*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N44684</t>
+          <t>N45114</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024 Toyota Venza Limited 4dr All-Wheel Drive</t>
+          <t>2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger Van</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$55289</t>
+          <t>$60619</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Venza Limited 4dr All-Wheel DriveLimited AWD</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger VanXSE 7-Passenger AWD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our Price:$55</t>
+          <t xml:space="preserve"> Our Price:$60</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>289</v>
+        <v>619</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$367*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N45114</t>
+          <t>N44519</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger Van</t>
+          <t>2024 Toyota Crown Platinum 4dr Sedan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$60619</t>
+          <t>$66524</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger VanXSE 7-Passenger AWD</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Crown Platinum 4dr SedanPlatinum Auto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our Price:$60</t>
+          <t xml:space="preserve"> Our Price:$66</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>619</v>
+        <v>524</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$406*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N44519</t>
+          <t>N44345</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024 Toyota Crown Platinum 4dr Sedan</t>
+          <t>2024 Toyota Tundra Hybrid Limited 4dr 4x4 CrewMax 5.5 ft. box</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$66524</t>
+          <t>$79104</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Crown Platinum 4dr SedanPlatinum Auto</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Tundra Hybrid Limited 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Limited Hybrid</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our Price:$66</t>
+          <t xml:space="preserve"> Our Price:$79</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>524</v>
+        <v>104</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$483*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N44345</t>
+          <t>N44768</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024 Toyota Tundra Hybrid Limited 4dr 4x4 CrewMax 5.5 ft. box</t>
+          <t>2023 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$79104</t>
+          <t>$90434</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Tundra Hybrid Limited 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Limited Hybrid</t>
+          <t>Appraise My Trade InApply for FinancingBook a Test Drive2023 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Capstone Hybrid</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our Price:$79</t>
+          <t xml:space="preserve"> Our Price:$90</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>104</v>
+        <v>434</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$525*(Bi-weekly)</t>
+          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>N44768</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>$90434</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Appraise My Trade InApply for FinancingBook a Test Drive2023 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Capstone Hybrid</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Our Price:$90</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>434</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>N43890</t>
         </is>

--- a/Projects/scrapping_py/MaritimeToyota.xlsx
+++ b/Projects/scrapping_py/MaritimeToyota.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="606">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -43,40 +43,34 @@
     <t>Source Website</t>
   </si>
   <si>
-    <t>2024 Toyota TUNDRA HYBRID TRD PRO</t>
+    <t>2024 Toyota Sienna Hybrid XSE FWD 7 PASSENGER</t>
+  </si>
+  <si>
+    <t>2024 Toyota TUNDRA HYBRID LIMITED TRD OFF ROAD</t>
+  </si>
+  <si>
+    <t>2024 Toyota TUNDRA HYBRID LIMITED NIGHTSHADE</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra CREWMAX LIMITED</t>
   </si>
   <si>
     <t>2024 Toyota Tundra CREWMAX SR5 L</t>
   </si>
   <si>
-    <t>2024 Toyota Tundra CREWMAX LIMITED L</t>
-  </si>
-  <si>
     <t>2024 Toyota Tundra SR5</t>
   </si>
   <si>
-    <t>2024 Toyota VENZA HYBRID LE</t>
-  </si>
-  <si>
-    <t>2024 Toyota TUNDRA HYBRID LIMITED NIGHTSHADE</t>
+    <t>2024 Toyota Grand Highlander Limited</t>
   </si>
   <si>
     <t>2024 Toyota VENZA HYBRID XLE</t>
   </si>
   <si>
-    <t>2024 Toyota Tundra CREWMAX LIMITED</t>
-  </si>
-  <si>
-    <t>2024 Toyota TUNDRA HYBRID LIMITED TRD OFF ROAD</t>
-  </si>
-  <si>
     <t>2024 Toyota Tundra CREWMAX SR</t>
   </si>
   <si>
-    <t>2024 Toyota Grand Highlander Limited</t>
-  </si>
-  <si>
-    <t>2024 Toyota Sienna Hybrid XSE FWD 7 PASSENGER</t>
+    <t>2025 Toyota Sequoia Hybrid</t>
   </si>
   <si>
     <t>2024 Toyota Corolla</t>
@@ -91,6 +85,9 @@
     <t>2024 Toyota Corolla Hybrid</t>
   </si>
   <si>
+    <t>2025 Toyota Corolla Hybrid</t>
+  </si>
+  <si>
     <t>2024 Toyota Corolla Cross</t>
   </si>
   <si>
@@ -184,51 +181,45 @@
     <t>2024 Toyota Sequoia Hybrid</t>
   </si>
   <si>
+    <t>2023 Toyota TUNDRA HYBRID TRD PRO</t>
+  </si>
+  <si>
+    <t>2024 Toyota RAV4 TRAIL</t>
+  </si>
+  <si>
+    <t>2024 Toyota COROLLA CROSS LE AWD</t>
+  </si>
+  <si>
+    <t>2024 Toyota RAV4 Hybrid XLE</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra LIMITED TRD OFF ROAD</t>
+  </si>
+  <si>
+    <t>2024 Toyota Sienna Hybrid XSE AWD 7 PASSENGER</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tacoma TRD Sport Premium</t>
+  </si>
+  <si>
     <t>2024 Toyota RAV4 XLE</t>
   </si>
   <si>
-    <t>2024 Toyota Tundra LIMITED TRD OFF ROAD</t>
-  </si>
-  <si>
-    <t>2024 Toyota RAV4 Prime XSE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Highlander hybrid XLE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Sienna Hybrid XSE AWD 7 PASSENGER</t>
-  </si>
-  <si>
-    <t>2024 Toyota RAV4 Hybrid LE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tacoma TRD Sport Plus</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tacoma TRD Sport Premium</t>
-  </si>
-  <si>
-    <t>2024 Toyota VENZA HYBRID LIMITED</t>
-  </si>
-  <si>
-    <t>2024 Toyota Corolla Cross Hybrid SE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tacoma TRD Off Road Premium</t>
-  </si>
-  <si>
-    <t>2024 Toyota GRAND HIGHLANDER HYBRID Limited</t>
-  </si>
-  <si>
-    <t>2023 Toyota TUNDRA HYBRID TRD PRO</t>
-  </si>
-  <si>
     <t>2025 Toyota CROWN PLATINUM</t>
   </si>
   <si>
     <t>2024 Toyota TUNDRA HYBRID CREWMAX PLATINUM</t>
   </si>
   <si>
+    <t>2024 Toyota Tundra Limited</t>
+  </si>
+  <si>
+    <t>2024 Toyota Venza XLE</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra TRD Sport</t>
+  </si>
+  <si>
     <t>https://www.acadiatoyota.com/en/new-inventory</t>
   </si>
   <si>
@@ -271,70 +262,121 @@
     <t>2024 Highlander PLATINUM</t>
   </si>
   <si>
-    <t>2024 Highlander hybrid PLATINUM</t>
-  </si>
-  <si>
     <t>2024 Tundra TRD SPORT</t>
   </si>
   <si>
     <t>2024 Tundra LIMITED NIGHTSHADE</t>
   </si>
   <si>
+    <t>2024 Tundra LIMITED TRD OFF ROAD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 VENZA HYBRID LIMITED</t>
+  </si>
+  <si>
+    <t>$52505</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gasoline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Wheel Drive</t>
+  </si>
+  <si>
+    <t>Stock #24346</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 Hybrid XLE</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 Hybrid XSE</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tundra CREWMAX LIMITED L</t>
+  </si>
+  <si>
     <t>Toyota 2024 Tundra CREWMAX LIMITED</t>
   </si>
   <si>
+    <t xml:space="preserve">Toyota 2024 Land Cruiser </t>
+  </si>
+  <si>
+    <t>Toyota 2024 TUNDRA CREWMAX PLATINUM Platinum</t>
+  </si>
+  <si>
+    <t>Toyota 2024 TUNDRA HYBRID CREWMAX LIMITED</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tundra CREWMAX PLATINUM L</t>
+  </si>
+  <si>
+    <t>$39050</t>
+  </si>
+  <si>
+    <t>$43750</t>
+  </si>
+  <si>
+    <t>$69990</t>
+  </si>
+  <si>
+    <t>$39305</t>
+  </si>
+  <si>
+    <t>$72475</t>
+  </si>
+  <si>
+    <t>$83680</t>
+  </si>
+  <si>
     <t>$72220</t>
   </si>
   <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gasoline</t>
+    <t>$79090</t>
+  </si>
+  <si>
+    <t>$86910</t>
+  </si>
+  <si>
+    <t>$79450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hybrid</t>
   </si>
   <si>
     <t xml:space="preserve"> 4x4</t>
   </si>
   <si>
+    <t>Stock #24366</t>
+  </si>
+  <si>
+    <t>Stock #24364</t>
+  </si>
+  <si>
+    <t>Stock #24347</t>
+  </si>
+  <si>
+    <t>Stock #24363</t>
+  </si>
+  <si>
+    <t>Stock #24361</t>
+  </si>
+  <si>
+    <t>Stock #24365</t>
+  </si>
+  <si>
     <t>Stock #24156</t>
   </si>
   <si>
-    <t>Toyota 2024 VENZA HYBRID LIMITED</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tundra CREWMAX LIMITED L</t>
-  </si>
-  <si>
-    <t>Toyota 2024 TUNDRA CREWMAX PLATINUM Platinum</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tundra CREWMAX PLATINUM L</t>
-  </si>
-  <si>
-    <t>$52505</t>
-  </si>
-  <si>
-    <t>$69990</t>
-  </si>
-  <si>
-    <t>$79090</t>
-  </si>
-  <si>
-    <t>$79450</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All Wheel Drive</t>
-  </si>
-  <si>
-    <t>Stock #24346</t>
-  </si>
-  <si>
-    <t>Stock #24347</t>
-  </si>
-  <si>
     <t>Stock #24029</t>
   </si>
   <si>
-    <t>Stock #24238</t>
+    <t>Stock #24356</t>
+  </si>
+  <si>
+    <t>Stock #24362</t>
   </si>
   <si>
     <t>Stock #24282</t>
@@ -358,12 +400,12 @@
     <t>2024 Corolla SE Upgrade</t>
   </si>
   <si>
+    <t>2024 COROLLA CROSS LE FWD</t>
+  </si>
+  <si>
     <t>2024 RAV4 LE</t>
   </si>
   <si>
-    <t>2025 Camry Hybrid SE Upgrade AWD</t>
-  </si>
-  <si>
     <t>2024 Tundra SR5</t>
   </si>
   <si>
@@ -373,13 +415,10 @@
     <t>2024 TUNDRA 4X4 SR5</t>
   </si>
   <si>
-    <t>2024 Tundra LIMITED TRD OFF ROAD</t>
-  </si>
-  <si>
     <t>2024 TUNDRA HYBRID LIMITED TRD OFF ROAD</t>
   </si>
   <si>
-    <t>2024 Land Cruiser Land Cruiser Premium</t>
+    <t>2024 TUNDRA 4X4 LIMITED TRD OFF ROAD</t>
   </si>
   <si>
     <t>2024 TUNDRA 4X4 PLATINUM</t>
@@ -394,12 +433,12 @@
     <t>$31682</t>
   </si>
   <si>
+    <t>$32742</t>
+  </si>
+  <si>
     <t>$36202</t>
   </si>
   <si>
-    <t>$40932</t>
-  </si>
-  <si>
     <t>$63502</t>
   </si>
   <si>
@@ -409,9 +448,6 @@
     <t>$66547</t>
   </si>
   <si>
-    <t>$68896</t>
-  </si>
-  <si>
     <t>$75272</t>
   </si>
   <si>
@@ -421,7 +457,7 @@
     <t>$79412</t>
   </si>
   <si>
-    <t>$86732</t>
+    <t>$79428</t>
   </si>
   <si>
     <t>$88995</t>
@@ -445,12 +481,12 @@
     <t>VIN 5YFB4MBE0RP000000</t>
   </si>
   <si>
+    <t>VIN 7MUCAAAG4RV103644</t>
+  </si>
+  <si>
     <t>VIN 2T3B1RFV0RC000000</t>
   </si>
   <si>
-    <t>VIN 4T1DBADK0SU506982</t>
-  </si>
-  <si>
     <t>VIN 5TFLA5DB0RX000000</t>
   </si>
   <si>
@@ -460,9 +496,6 @@
     <t>VIN 5TFLA5DB2RX215788</t>
   </si>
   <si>
-    <t>VIN 3TYLC5LN5RT004343</t>
-  </si>
-  <si>
     <t>VIN 5TFJA5DB0RX000000</t>
   </si>
   <si>
@@ -475,7 +508,7 @@
     <t>VIN 5TFWA5EC0RX000000</t>
   </si>
   <si>
-    <t>VIN JTEABFAJ4RK008933</t>
+    <t>VIN 5TFJA5ECXRX034856</t>
   </si>
   <si>
     <t>VIN 5TFNA5DB3RX142309</t>
@@ -493,57 +526,33 @@
     <t>Stock Number</t>
   </si>
   <si>
-    <t>2024 Corolla LE</t>
-  </si>
-  <si>
-    <t>2024 COROLLA CROSS LE PREMIUM AWD</t>
-  </si>
-  <si>
     <t>2024 PRIUS PRIME SE</t>
   </si>
   <si>
-    <t>2024 GR86 Premium MT</t>
-  </si>
-  <si>
-    <t>2024 RAV4 Hybrid XLE</t>
-  </si>
-  <si>
-    <t>2024 RAV4 Hybrid WOODLAND</t>
-  </si>
-  <si>
     <t>2024 RAV4 Hybrid XSE</t>
   </si>
   <si>
-    <t>2024 VENZA HYBRID LIMITED</t>
-  </si>
-  <si>
     <t>2024 Highlander hybrid XLE</t>
   </si>
   <si>
-    <t>$27,039</t>
-  </si>
-  <si>
-    <t>$35,504</t>
+    <t>2024 TUNDRA 4X4 TRD SPORT</t>
+  </si>
+  <si>
+    <t>2024 TUNDRA 4X4 TRD OFF ROAD</t>
+  </si>
+  <si>
+    <t>2024 TACOMA HYBRID Trailhunter</t>
+  </si>
+  <si>
+    <t>$35,884</t>
   </si>
   <si>
     <t>$42,214</t>
   </si>
   <si>
-    <t>$38,084</t>
-  </si>
-  <si>
-    <t>$41,797</t>
-  </si>
-  <si>
-    <t>$45,217</t>
-  </si>
-  <si>
     <t>$46,752</t>
   </si>
   <si>
-    <t>$55,252</t>
-  </si>
-  <si>
     <t>$55,431</t>
   </si>
   <si>
@@ -553,84 +562,69 @@
     <t>$63,254</t>
   </si>
   <si>
-    <t>All Wheel DriveAutomatic2L 4cyl.</t>
-  </si>
-  <si>
-    <t>Rear Wheel DriveManual2.4L 4cyl.</t>
-  </si>
-  <si>
-    <t>VIN 5YFB4MDE3RP202845</t>
-  </si>
-  <si>
-    <t>VIN 7MUBAABG4RV106800</t>
+    <t>$65,354</t>
+  </si>
+  <si>
+    <t>$66,924</t>
+  </si>
+  <si>
+    <t>$85,754</t>
+  </si>
+  <si>
+    <t>VIN 2T3B1RFV8RC471899</t>
   </si>
   <si>
     <t>VIN JTDACACU4R3020697</t>
   </si>
   <si>
-    <t>VIN JF1ZNBE19R9759265</t>
-  </si>
-  <si>
-    <t>VIN 2T3RWRFV0RW236217</t>
-  </si>
-  <si>
-    <t>VIN 2T3RWRFV0RW236377</t>
-  </si>
-  <si>
     <t>VIN 2T35WRFV6RW235359</t>
   </si>
   <si>
-    <t>VIN JTEAAAAH3RJ182887</t>
-  </si>
-  <si>
     <t>VIN 5TDKBRCH3RS629576</t>
   </si>
   <si>
-    <t>VIN 5TDKBRCH0RS628532</t>
-  </si>
-  <si>
     <t>VIN 5TDKBRCH0RS628871</t>
   </si>
   <si>
     <t>VIN 5TFLA5DB3RX221132</t>
   </si>
   <si>
-    <t>Stock #F170</t>
-  </si>
-  <si>
-    <t>Stock #F172</t>
+    <t>VIN 5TFLA5DB8RX221529</t>
+  </si>
+  <si>
+    <t>VIN 5TFLA5EC9RX034002</t>
+  </si>
+  <si>
+    <t>VIN 3TYLF5LN5RT000896</t>
+  </si>
+  <si>
+    <t>Stock #F182</t>
   </si>
   <si>
     <t>Stock #E914</t>
   </si>
   <si>
-    <t>Stock #F173</t>
-  </si>
-  <si>
-    <t>Stock #F165</t>
-  </si>
-  <si>
-    <t>Stock #F180</t>
-  </si>
-  <si>
     <t>Stock #F168</t>
   </si>
   <si>
-    <t>Stock #F169</t>
-  </si>
-  <si>
     <t>Stock #F160</t>
   </si>
   <si>
-    <t>Stock #F174</t>
-  </si>
-  <si>
     <t>Stock #F181</t>
   </si>
   <si>
     <t>Stock #F176</t>
   </si>
   <si>
+    <t>Stock #F177</t>
+  </si>
+  <si>
+    <t>Stock #F161</t>
+  </si>
+  <si>
+    <t>Stock #F179</t>
+  </si>
+  <si>
     <t>Drive</t>
   </si>
   <si>
@@ -649,699 +643,708 @@
     <t>All Wheel Drive</t>
   </si>
   <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>2.5L 4cyl.</t>
+  </si>
+  <si>
+    <t>$51</t>
+  </si>
+  <si>
+    <t>JTEAAAAH6RJ183094</t>
+  </si>
+  <si>
+    <t>Wind Chill Pearl</t>
+  </si>
+  <si>
+    <t>https://img.sm360.ca/ir/w360h270/images/inventory/truro-toyota/toyota/venza-hybrid/2024/33787728/33787728_02854_2024-toyota-venza-hybrid_021.jpg</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra Capstone Hybrid</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra SR</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra Limited Hybrid</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra Platinum</t>
+  </si>
+  <si>
+    <t>2024 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>2024 Toyota Sienna XLE</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tacoma BASE</t>
+  </si>
+  <si>
+    <t>2024 Toyota Corolla Cross LE</t>
+  </si>
+  <si>
+    <t>2024 Toyota RAV4 Trail</t>
+  </si>
+  <si>
+    <t>2024 Toyota RAV4 LE</t>
+  </si>
+  <si>
+    <t>2024 Toyota RAV4 Hybrid Limited</t>
+  </si>
+  <si>
+    <t>$74,590   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$92,720   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$74,250   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$64,580   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$75,635   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$81,120   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$40,920   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$26,350   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$88,940   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$49,980   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$52,080   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$65,160   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$60,180   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$62,480   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$43,120   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$33,120   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$42,580   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$38,880   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$35,180   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$48,980   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>$63,750   Pricing excludes licensing and tax.</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N081995"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Grey"},{"label":"Stock #:","value":"N033423"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Wind Chill Pearl"},{"label":"Stock #:","value":"N084559"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Lunar Rock"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N221567"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N221683"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N222207"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Wind Chill Pearl"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N084710"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N220137"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N469493"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N200941"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N079701"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Interior Colour:","value":"Charcoal"},{"label":"Stock #:","value":"N216586"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Intercooled Turbo Regular Unleaded I-4 2.4 L/146"},{"label":"Manufacturer Exterior Colour:","value":"Black"},{"label":"Stock #:","value":"N040847"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Lunar Rock"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N034435"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Intercooled Turbo Regular Unleaded I-4 2.4 L/146"},{"label":"Manufacturer Exterior Colour:","value":"Underground"},{"label":"Stock #:","value":"N039438"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N222528"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N237851"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Sonic Silver Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N106488"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"White"},{"label":"Stock #:","value":"N480633"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N471619"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Intercooled Turbo Regular Unleaded I-4 2.4 L/146"},{"label":"Manufacturer Exterior Colour:","value":"Blue Crush Metallic"},{"label":"Stock #:","value":"N028513"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"White"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N473801"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N473518"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N239004"}]</t>
+  </si>
+  <si>
+    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Stock #:","value":"N229288"}]</t>
+  </si>
+  <si>
+    <t>Toyota 2023 Corolla Cross in Sydney</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 Hybrid in Sydney</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Highlander in Sydney</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Crown in Sydney</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tundra in Sydney</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tacoma in Sydney</t>
+  </si>
+  <si>
+    <t>34,525</t>
+  </si>
+  <si>
+    <t>46,950</t>
+  </si>
+  <si>
+    <t>55,050</t>
+  </si>
+  <si>
+    <t>61,690</t>
+  </si>
+  <si>
+    <t>62,540</t>
+  </si>
+  <si>
+    <t>67,905</t>
+  </si>
+  <si>
+    <t>69,650</t>
+  </si>
+  <si>
+    <t>72,815</t>
+  </si>
+  <si>
+    <t>82,950</t>
+  </si>
+  <si>
+    <t>[{"label":"10 KM","value":"10 KM"}]</t>
+  </si>
+  <si>
+    <t>2025 Toyota Corolla Hatchback 5dr</t>
+  </si>
+  <si>
+    <t>$30217</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Corolla Hatchback 5drCVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$30</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.</t>
+  </si>
+  <si>
+    <t>N45555</t>
+  </si>
+  <si>
+    <t>2024 Toyota Corolla Cross Hybrid SE 4dr All-Wheel Drive</t>
+  </si>
+  <si>
+    <t>2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger Van</t>
+  </si>
+  <si>
+    <t>2024 Toyota Crown Platinum 4dr Sedan</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra Limited 4dr 4x4 CrewMax 5.5 ft. box</t>
+  </si>
+  <si>
+    <t>2024 Toyota Land Cruiser 4dr 4x4</t>
+  </si>
+  <si>
+    <t>2024 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box</t>
+  </si>
+  <si>
+    <t>$37119</t>
+  </si>
+  <si>
+    <t>$60619</t>
+  </si>
+  <si>
+    <t>$66524</t>
+  </si>
+  <si>
+    <t>$75004</t>
+  </si>
+  <si>
+    <t>$92899</t>
+  </si>
+  <si>
+    <t>$93219</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Corolla Cross Hybrid SE 4dr All-Wheel DriveHybrid SE AWD</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger VanXSE 7-Passenger AWD</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Crown Platinum 4dr SedanPlatinum Auto</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Tundra Limited 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Limited</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Land Cruiser 4dr 4x44WD</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Capstone Hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$93</t>
+  </si>
+  <si>
+    <t>N45074</t>
+  </si>
+  <si>
+    <t>N44519</t>
+  </si>
+  <si>
+    <t>N44345</t>
+  </si>
+  <si>
+    <t>N45475</t>
+  </si>
+  <si>
+    <t>N45426</t>
+  </si>
+  <si>
+    <t>N45427</t>
+  </si>
+  <si>
+    <t>2024ToyotaTacoma</t>
+  </si>
+  <si>
+    <t>82950</t>
+  </si>
+  <si>
+    <t>[{"label":"Colour"</t>
+  </si>
+  <si>
+    <t>value:"White"}</t>
+  </si>
+  <si>
+    <t>{"label":"Transmission"</t>
+  </si>
+  <si>
+    <t>value:"Auto"}</t>
+  </si>
+  <si>
+    <t>{"label":"Drivetrain"</t>
+  </si>
+  <si>
+    <t>value:"4-Wheel drive"}</t>
+  </si>
+  <si>
+    <t>{"label":"Fuel Type"</t>
+  </si>
+  <si>
+    <t>value:"Hybrid"}</t>
+  </si>
+  <si>
+    <t>{"label":"Stock #"</t>
+  </si>
+  <si>
+    <t>value:"#TD45467"}]</t>
+  </si>
+  <si>
+    <t>value:"Midnight Black Metallic"}</t>
+  </si>
+  <si>
+    <t>value:"Blueprint"}</t>
+  </si>
+  <si>
+    <t>value:"Solar Octane (Orange)"}</t>
+  </si>
+  <si>
+    <t>value:"Blue Crush"}</t>
+  </si>
+  <si>
+    <t>value:"Magnetic Grey Metallic"}</t>
+  </si>
+  <si>
+    <t>value:"Jet Black Mica"}</t>
+  </si>
+  <si>
+    <t>value:"Lunar Rock"}</t>
+  </si>
+  <si>
+    <t>{"label":"Trim"</t>
+  </si>
+  <si>
+    <t>value:"Limited"}</t>
+  </si>
+  <si>
+    <t>value:"Hybrid XLE"}</t>
+  </si>
+  <si>
+    <t>value:"XLE"}</t>
+  </si>
+  <si>
+    <t>value:"Hybrid LE"}</t>
+  </si>
+  <si>
+    <t>value:"LE"}</t>
+  </si>
+  <si>
+    <t>value:"Hybrid SE"}</t>
+  </si>
+  <si>
+    <t>value:"SR"}</t>
+  </si>
+  <si>
+    <t>value:"Gas"}</t>
+  </si>
+  <si>
+    <t>value:"All-Wheel drive"}</t>
+  </si>
+  <si>
+    <t>value:"#TD45325"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45200"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45435"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45392"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45171"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD44981"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD44869"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD44823"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD44762"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD44763"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD44310"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45468"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45469"}]</t>
+  </si>
+  <si>
+    <t>value:"#TD45061"}]</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Exterior Color</t>
+  </si>
+  <si>
+    <t>Interior Color</t>
+  </si>
+  <si>
+    <t>Drivetrain</t>
+  </si>
+  <si>
+    <t>New 2024 Toyota RAV4 LE SUV</t>
+  </si>
+  <si>
+    <t>New 2025 Toyota Camry SE Sedan</t>
+  </si>
+  <si>
+    <t>New 2024 Toyota GR86 Coupe</t>
+  </si>
+  <si>
+    <t>New 2025 Toyota Camry SE 4D Sedan</t>
+  </si>
+  <si>
+    <t>New 2024 Toyota RAV4 Hybrid XSE SUV</t>
+  </si>
+  <si>
+    <t>New 2025 Toyota Camry XSE 4D Sedan</t>
+  </si>
+  <si>
+    <t>New 2024 Toyota Tacoma TRD Sport 4D Double Cab</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>GR86</t>
+  </si>
+  <si>
+    <t>Hybrid XSE</t>
+  </si>
+  <si>
+    <t>XSE</t>
+  </si>
+  <si>
+    <t>TRD Sport</t>
+  </si>
+  <si>
+    <t>T044766</t>
+  </si>
+  <si>
+    <t>T039810</t>
+  </si>
+  <si>
+    <t>T009741</t>
+  </si>
+  <si>
+    <t>2T3H1RFV5RW355326</t>
+  </si>
+  <si>
+    <t>2T3H1RFV8RC294166</t>
+  </si>
+  <si>
+    <t>4T1DAACK7SU044358</t>
+  </si>
+  <si>
+    <t>JF1ZNBB15R8760715</t>
+  </si>
+  <si>
+    <t>4T1DAACK0SU044766</t>
+  </si>
+  <si>
+    <t>4T1DAACK1SU049281</t>
+  </si>
+  <si>
+    <t>4T1DAACK6SU047946</t>
+  </si>
+  <si>
+    <t>4T3E6RFV4RU170219</t>
+  </si>
+  <si>
+    <t>4T1DAACK7SU039810</t>
+  </si>
+  <si>
+    <t>3TMKB5FN1RM009741</t>
+  </si>
+  <si>
+    <t>Magnetic Gray Metallic</t>
+  </si>
+  <si>
+    <t>Midnight Black Metallic</t>
+  </si>
+  <si>
+    <t>Track Bred []</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Ice Cap</t>
+  </si>
+  <si>
+    <t>Magnetic Gray Metallic/Midnight Black Metallic Roof</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Black Fabric</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>Black Mixed Media</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Boulder/Blk Fabric (Fe)</t>
+  </si>
+  <si>
+    <t>FWD</t>
+  </si>
+  <si>
+    <t>RWD</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>$39899</t>
+  </si>
+  <si>
+    <t>2T3R1RFV6RC466277</t>
+  </si>
+  <si>
+    <t>466277</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>2024 CROWN LIMITED</t>
+  </si>
+  <si>
+    <t>2023 GR Supra 3.0L PREMIUM</t>
+  </si>
+  <si>
+    <t>2024 TUNDRA HYBRID LIMITED NIGHTSHADE</t>
+  </si>
+  <si>
     <t>Four-Wheel Drive</t>
   </si>
   <si>
-    <t>Automatic</t>
-  </si>
-  <si>
-    <t>2.5L 4cyl.</t>
+    <t>Rear Wheel Drive</t>
   </si>
   <si>
     <t>3.5L TURBO 6cyl.</t>
   </si>
   <si>
-    <t>$51</t>
-  </si>
-  <si>
-    <t>$65</t>
-  </si>
-  <si>
-    <t>JTEAAAAH6RJ183094</t>
-  </si>
-  <si>
-    <t>5TFLA5EC0RX033840</t>
-  </si>
-  <si>
-    <t>Wind Chill Pearl</t>
+    <t>3L TURBO 6cyl.</t>
+  </si>
+  <si>
+    <t>$55224</t>
+  </si>
+  <si>
+    <t>$63499</t>
+  </si>
+  <si>
+    <t>$65809</t>
+  </si>
+  <si>
+    <t>$72439</t>
+  </si>
+  <si>
+    <t>$75269</t>
+  </si>
+  <si>
+    <t>$82862</t>
+  </si>
+  <si>
+    <t>JTDAAAAF1R3029142</t>
+  </si>
+  <si>
+    <t>5TFLA5DBXRX211388</t>
+  </si>
+  <si>
+    <t>5TFLA5DB8RX207405</t>
+  </si>
+  <si>
+    <t>WZ1DB0G05PW061354</t>
+  </si>
+  <si>
+    <t>5TFJA5DB1RX210766</t>
+  </si>
+  <si>
+    <t>5TFWC5EC4RX005563</t>
+  </si>
+  <si>
+    <t>Oxygen White</t>
   </si>
   <si>
     <t>Blueprint</t>
   </si>
   <si>
-    <t>https://img.sm360.ca/ir/w360h270/images/inventory/truro-toyota/toyota/venza-hybrid/2024/33787728/33787728_02854_2024-toyota-venza-hybrid_021.jpg</t>
-  </si>
-  <si>
-    <t>https://img.sm360.ca/images/web/pye-auto/3114/listing-used-default-picture-eng1637772614044.jpg</t>
-  </si>
-  <si>
-    <t>Specs</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra Capstone Hybrid</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra Limited</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra SR</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra Limited Hybrid</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra Platinum</t>
-  </si>
-  <si>
-    <t>2024 Toyota Corolla Cross LE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Corolla LE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tacoma BASE</t>
-  </si>
-  <si>
-    <t>$74,590   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$92,720   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$74,250   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$64,580   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$75,635   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$81,120   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$40,920   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$34,800   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$26,350   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$88,940   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$60,180   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$58,020   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N081995"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Grey"},{"label":"Stock #:","value":"N033423"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Wind Chill Pearl"},{"label":"Stock #:","value":"N084559"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Lunar Rock"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N221567"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N221683"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N223141"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N222207"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Wind Chill Pearl"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N084710"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N220137"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N469493"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Jet Black Mica"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N105953"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N200941"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N079701"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Intercooled Turbo Regular Unleaded I-4 2.4 L/146"},{"label":"Manufacturer Exterior Colour:","value":"Blue Crush Metallic"},{"label":"Stock #:","value":"N028513"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Blueprint w/Black Roof"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N212747"}]</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Corolla in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Corolla Hybrid in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Corolla Cross in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2023 Corolla Cross in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 Hybrid in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Crown in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tundra in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Land Cruiser in Sydney</t>
-  </si>
-  <si>
-    <t>26,680</t>
-  </si>
-  <si>
-    <t>28,290</t>
-  </si>
-  <si>
-    <t>29,050</t>
-  </si>
-  <si>
-    <t>34,525</t>
-  </si>
-  <si>
-    <t>46,950</t>
-  </si>
-  <si>
-    <t>61,690</t>
-  </si>
-  <si>
-    <t>62,540</t>
-  </si>
-  <si>
-    <t>67,905</t>
-  </si>
-  <si>
-    <t>72,815</t>
-  </si>
-  <si>
-    <t>77,290</t>
-  </si>
-  <si>
-    <t>[{"label":"10 KM","value":"10 KM"}]</t>
-  </si>
-  <si>
-    <t>2025 Toyota Corolla Hatchback 5dr</t>
-  </si>
-  <si>
-    <t>$30217</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Corolla Hatchback 5drCVT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$30</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$196*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t>N45555</t>
-  </si>
-  <si>
-    <t>2024 Toyota Corolla Cross Hybrid SE 4dr All-Wheel Drive</t>
-  </si>
-  <si>
-    <t>2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger Van</t>
-  </si>
-  <si>
-    <t>2024 Toyota Crown Platinum 4dr Sedan</t>
-  </si>
-  <si>
-    <t>2024 Toyota Land Cruiser 1958 4dr 4x4</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra Limited 4dr 4x4 CrewMax 5.5 ft. box</t>
-  </si>
-  <si>
-    <t>2024 Toyota Land Cruiser 4dr 4x4</t>
-  </si>
-  <si>
-    <t>2024 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box</t>
-  </si>
-  <si>
-    <t>$37119</t>
-  </si>
-  <si>
-    <t>$60619</t>
-  </si>
-  <si>
-    <t>$66524</t>
-  </si>
-  <si>
-    <t>$71819</t>
-  </si>
-  <si>
-    <t>$75004</t>
-  </si>
-  <si>
-    <t>$92899</t>
-  </si>
-  <si>
-    <t>$93219</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Corolla Cross Hybrid SE 4dr All-Wheel DriveHybrid SE AWD</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Sienna XSE 7-Passenger 4dr All-Wheel Drive Passenger VanXSE 7-Passenger AWD</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Crown Platinum 4dr SedanPlatinum Auto</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Land Cruiser 1958 4dr 4x41958 4WD</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Tundra Limited 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Limited</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Land Cruiser 4dr 4x44WD</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2024 Toyota Tundra Hybrid Capstone 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Capstone Hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$71</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$237*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$407*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$487*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$452*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$454*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$602*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$620*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t>N45074</t>
-  </si>
-  <si>
-    <t>N44519</t>
-  </si>
-  <si>
-    <t>N44345</t>
-  </si>
-  <si>
-    <t>N45342</t>
-  </si>
-  <si>
-    <t>N45475</t>
-  </si>
-  <si>
-    <t>N45453</t>
-  </si>
-  <si>
-    <t>N45426</t>
-  </si>
-  <si>
-    <t>N45427</t>
-  </si>
-  <si>
-    <t>2024ToyotaTacoma</t>
-  </si>
-  <si>
-    <t>82950</t>
-  </si>
-  <si>
-    <t>[{"label":"Colour"</t>
-  </si>
-  <si>
-    <t>value:"White"}</t>
-  </si>
-  <si>
-    <t>{"label":"Transmission"</t>
-  </si>
-  <si>
-    <t>value:"Auto"}</t>
-  </si>
-  <si>
-    <t>{"label":"Drivetrain"</t>
-  </si>
-  <si>
-    <t>value:"4-Wheel drive"}</t>
-  </si>
-  <si>
-    <t>{"label":"Fuel Type"</t>
-  </si>
-  <si>
-    <t>value:"Hybrid"}</t>
-  </si>
-  <si>
-    <t>{"label":"Stock #"</t>
-  </si>
-  <si>
-    <t>value:"#TD45467"}]</t>
-  </si>
-  <si>
-    <t>value:"Midnight Black Metallic"}</t>
-  </si>
-  <si>
-    <t>value:"Magnetic Grey Metallic"}</t>
-  </si>
-  <si>
-    <t>value:"Blueprint"}</t>
-  </si>
-  <si>
-    <t>value:"Solar Octane (Orange)"}</t>
-  </si>
-  <si>
-    <t>value:"Blue Crush"}</t>
-  </si>
-  <si>
-    <t>value:"Jet Black Mica"}</t>
-  </si>
-  <si>
-    <t>value:"Lunar Rock"}</t>
-  </si>
-  <si>
-    <t>{"label":"Trim"</t>
-  </si>
-  <si>
-    <t>value:"Limited"}</t>
-  </si>
-  <si>
-    <t>value:"SR"}</t>
-  </si>
-  <si>
-    <t>value:"Platinum"}</t>
-  </si>
-  <si>
-    <t>value:"Hybrid XLE"}</t>
-  </si>
-  <si>
-    <t>value:"XLE"}</t>
-  </si>
-  <si>
-    <t>value:"Hybrid LE"}</t>
-  </si>
-  <si>
-    <t>value:"LE"}</t>
-  </si>
-  <si>
-    <t>value:"Hybrid SE"}</t>
-  </si>
-  <si>
-    <t>value:"Gas"}</t>
-  </si>
-  <si>
-    <t>value:"All-Wheel drive"}</t>
-  </si>
-  <si>
-    <t>value:"#TD45325"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45200"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45435"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45436"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45409"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45392"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45171"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD44981"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD44869"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD44823"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD44762"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD44763"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD44310"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45468"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45469"}]</t>
-  </si>
-  <si>
-    <t>value:"#TD45061"}]</t>
-  </si>
-  <si>
-    <t>Mileage</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Exterior Color</t>
-  </si>
-  <si>
-    <t>Interior Color</t>
-  </si>
-  <si>
-    <t>Drivetrain</t>
-  </si>
-  <si>
-    <t>New 2024 Toyota Corolla LE 4D Sedan</t>
-  </si>
-  <si>
-    <t>New 2024 Toyota Corolla Cross LE 4D Sport Utility</t>
-  </si>
-  <si>
-    <t>New 2024 Toyota RAV4 LE SUV</t>
-  </si>
-  <si>
-    <t>New 2024 Toyota GR86 Coupe</t>
-  </si>
-  <si>
-    <t>New 2025 Toyota Camry SE Sedan</t>
-  </si>
-  <si>
-    <t>New 2025 Toyota Camry SE 4D Sedan</t>
-  </si>
-  <si>
-    <t>New 2024 Toyota RAV4 XLE SUV</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>GR86</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>XLE</t>
-  </si>
-  <si>
-    <t>T211491</t>
-  </si>
-  <si>
-    <t>T211069</t>
-  </si>
-  <si>
-    <t>T104144</t>
-  </si>
-  <si>
-    <t>T532518</t>
-  </si>
-  <si>
-    <t>T533092</t>
-  </si>
-  <si>
-    <t>5YFB4MDE6RP211491</t>
-  </si>
-  <si>
-    <t>5YFB4MDE8RP211069</t>
-  </si>
-  <si>
-    <t>7MUCAAAG0RV104144</t>
-  </si>
-  <si>
-    <t>2T3H1RFV8RC294166</t>
-  </si>
-  <si>
-    <t>JF1ZNBB15R8760715</t>
-  </si>
-  <si>
-    <t>4T1DAACK0SU044766</t>
-  </si>
-  <si>
-    <t>4T1DAACK0SU532518</t>
-  </si>
-  <si>
-    <t>2T3W1RFV5RW351686</t>
-  </si>
-  <si>
-    <t>4T1DAACK8SU533092</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Wind Chill Prl</t>
-  </si>
-  <si>
-    <t>Magnetic Gray Metallic</t>
-  </si>
-  <si>
-    <t>Track Bred []</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>Heavy Metal</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Black Fabric</t>
-  </si>
-  <si>
-    <t>Boulder</t>
-  </si>
-  <si>
-    <t>FWD</t>
-  </si>
-  <si>
-    <t>RWD</t>
-  </si>
-  <si>
-    <t>$39899</t>
-  </si>
-  <si>
-    <t>2T3R1RFV6RC466277</t>
-  </si>
-  <si>
-    <t>466277</t>
-  </si>
-  <si>
-    <t>2024 CROWN LIMITED</t>
-  </si>
-  <si>
-    <t>2024 TUNDRA 4X4 TRD OFF ROAD</t>
-  </si>
-  <si>
-    <t>2023 GR Supra 3.0L PREMIUM</t>
-  </si>
-  <si>
-    <t>2024 TUNDRA 4X4 LIMITED TRD OFF ROAD</t>
-  </si>
-  <si>
-    <t>2024 TUNDRA HYBRID LIMITED NIGHTSHADE</t>
-  </si>
-  <si>
-    <t>Rear Wheel Drive</t>
-  </si>
-  <si>
-    <t>3L TURBO 6cyl.</t>
-  </si>
-  <si>
-    <t>$55224</t>
-  </si>
-  <si>
-    <t>$63499</t>
-  </si>
-  <si>
-    <t>$65809</t>
-  </si>
-  <si>
-    <t>$72439</t>
-  </si>
-  <si>
-    <t>$75269</t>
-  </si>
-  <si>
-    <t>$82862</t>
-  </si>
-  <si>
-    <t>JTDAAAAF1R3029142</t>
-  </si>
-  <si>
-    <t>5TFLA5DBXRX211388</t>
-  </si>
-  <si>
-    <t>5TFLA5DB8RX207405</t>
-  </si>
-  <si>
-    <t>WZ1DB0G05PW061354</t>
-  </si>
-  <si>
-    <t>5TFJA5DB1RX210766</t>
-  </si>
-  <si>
-    <t>5TFWC5EC4RX005563</t>
-  </si>
-  <si>
-    <t>Oxygen White</t>
-  </si>
-  <si>
-    <t>Midnight Black Metallic</t>
-  </si>
-  <si>
     <t>Stratosphere</t>
   </si>
   <si>
@@ -1351,124 +1354,127 @@
     <t>26350</t>
   </si>
   <si>
+    <t>14 KM. CVT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ext: White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int: Black</t>
+  </si>
+  <si>
+    <t>N202868-NEW</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Corolla SE</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Corolla Hybrid HYBRID LE</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Corolla Cross LE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Corolla Cross LE</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 LE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 Hybrid LE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 XLE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Prius XLE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 Hybrid XLE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Prius Prime SE</t>
+  </si>
+  <si>
+    <t>Toyota 2024 RAV4 Hybrid HYBRID XLE</t>
+  </si>
+  <si>
+    <t>Toyota 2025 Camry Hybrid XLE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Sienna Hybrid SIENNA LE AWD 8-PASS</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tacoma DOUBLE CAB SR5</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tacoma DOUBLE CAB MT</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Highlander Hybrid XLE AWD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 4Runner TRD OFFROAD</t>
+  </si>
+  <si>
+    <t>Toyota 2024 4Runner Base</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tacoma DOUBLE CAB TRD OFFROAD PREMIUM</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tacoma Base</t>
+  </si>
+  <si>
+    <t>Toyota 2025 Crown LIMITED</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tundra CREWMAX SR</t>
+  </si>
+  <si>
+    <t>Toyota 2024 Tacoma HV DOUBLE CAB</t>
+  </si>
+  <si>
+    <t>CVT</t>
+  </si>
+  <si>
     <t>21 KM. CVT</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ext: White</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Int: Black</t>
-  </si>
-  <si>
-    <t>N202868-NEW</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Corolla SE</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Corolla Hybrid HYBRID LE</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Corolla Cross LE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 LE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 LE</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 Hybrid LE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 XLE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Prius XLE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 Hybrid XLE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Prius Prime SE</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 Hybrid HYBRID SE</t>
-  </si>
-  <si>
-    <t>Toyota 2024 RAV4 Hybrid HYBRID XLE</t>
-  </si>
-  <si>
-    <t>Toyota 2025 Camry Hybrid XLE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Sienna Hybrid SIENNA LE AWD 8-PASS</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tacoma DOUBLE CAB SR5</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Highlander Hybrid XLE AWD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 4Runner TRD OFFROAD</t>
-  </si>
-  <si>
-    <t>Toyota 2024 4Runner Base</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tacoma DOUBLE CAB TRD OFFROAD PREMIUM</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tacoma Base</t>
-  </si>
-  <si>
-    <t>Toyota 2025 Crown LIMITED</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tundra CREWMAX SR</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tacoma HV DOUBLE CAB</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tundra CREWMAX LIMITED NIGHTSHADE</t>
-  </si>
-  <si>
-    <t>Toyota 2024 Tundra Hybrid CREWMAX LIMITED NIGHTSHADE</t>
+    <t>26 KM. CVT</t>
+  </si>
+  <si>
+    <t>10 KM. Auto.</t>
+  </si>
+  <si>
+    <t>Auto.</t>
+  </si>
+  <si>
+    <t>22 KM. Auto.</t>
   </si>
   <si>
     <t>10 KM. CVT</t>
   </si>
   <si>
-    <t>CVT</t>
-  </si>
-  <si>
-    <t>26 KM. CVT</t>
-  </si>
-  <si>
-    <t>Auto.</t>
-  </si>
-  <si>
-    <t>22 KM. Auto.</t>
+    <t>20 KM. CVT</t>
+  </si>
+  <si>
+    <t>21 KM. Auto.</t>
+  </si>
+  <si>
+    <t>Man.</t>
   </si>
   <si>
     <t>35 KM. Auto.</t>
   </si>
   <si>
-    <t>21 KM. Auto.</t>
-  </si>
-  <si>
-    <t>10 KM. Auto.</t>
-  </si>
-  <si>
-    <t>25 KM. Auto.</t>
+    <t xml:space="preserve"> Ext: Ruby Flare Pearl</t>
   </si>
   <si>
     <t xml:space="preserve"> Ext: Celestite</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ext: Ruby Flare Pearl</t>
+    <t xml:space="preserve"> Ext: Jet Black Mica</t>
   </si>
   <si>
     <t xml:space="preserve"> Ext: Midnight Black Metallic</t>
@@ -1486,21 +1492,21 @@
     <t xml:space="preserve"> Ext: Supersonic Red</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ext: Blueprint</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ext: Celestial Silver Metallic</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ext: Underground</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Ext: Cypress</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ext: Blueprint</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ext: Classic Silver Metallic</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ext: Underground</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ext: Solar Octane</t>
   </si>
   <si>
@@ -1510,6 +1516,9 @@
     <t xml:space="preserve"> Ext: Lunar Rock</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ext: Silver</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Int: Black / Red</t>
   </si>
   <si>
@@ -1519,12 +1528,12 @@
     <t xml:space="preserve"> Int: Seat: BLACK</t>
   </si>
   <si>
+    <t xml:space="preserve"> Int: Seat: GRAY/BLACK</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Int: Saddle Tan</t>
   </si>
   <si>
-    <t>N204650-NEW</t>
-  </si>
-  <si>
     <t>N210461-NEW</t>
   </si>
   <si>
@@ -1537,12 +1546,12 @@
     <t>N104297-NEW</t>
   </si>
   <si>
-    <t>N106829-NEW</t>
-  </si>
-  <si>
     <t>N108201-NEW</t>
   </si>
   <si>
+    <t>N109276-NEW</t>
+  </si>
+  <si>
     <t>N469152-NEW</t>
   </si>
   <si>
@@ -1570,10 +1579,13 @@
     <t>N238557-NEW</t>
   </si>
   <si>
+    <t>N240501-NEW</t>
+  </si>
+  <si>
     <t>N026197-NEW</t>
   </si>
   <si>
-    <t>N237334-NEW</t>
+    <t>N239746-NEW</t>
   </si>
   <si>
     <t>N237673-NEW</t>
@@ -1591,6 +1603,9 @@
     <t>N040060-NEW</t>
   </si>
   <si>
+    <t>N042554-NEW</t>
+  </si>
+  <si>
     <t>N627755-NEW</t>
   </si>
   <si>
@@ -1621,10 +1636,7 @@
     <t>N002865-NEW</t>
   </si>
   <si>
-    <t>N034270-NEW</t>
-  </si>
-  <si>
-    <t>N053357-NEW</t>
+    <t>N224463-NEW</t>
   </si>
   <si>
     <t>URL</t>
@@ -1636,61 +1648,52 @@
     <t xml:space="preserve">                    Toyota Tundra</t>
   </si>
   <si>
-    <t xml:space="preserve">                    Toyota Prius</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    Toyota RAV4</t>
   </si>
   <si>
     <t xml:space="preserve">                    Toyota Sienna</t>
   </si>
   <si>
-    <t xml:space="preserve">                    Toyota 4Runner</t>
-  </si>
-  <si>
     <t>$62979</t>
   </si>
   <si>
-    <t>$42264</t>
-  </si>
-  <si>
-    <t>$41579</t>
+    <t>$47534</t>
   </si>
   <si>
     <t>$53234</t>
   </si>
   <si>
-    <t>$46504</t>
+    <t>$39379</t>
+  </si>
+  <si>
+    <t>$43334</t>
   </si>
   <si>
     <t>$65659</t>
   </si>
   <si>
-    <t>$59139</t>
+    <t>$41834</t>
   </si>
   <si>
     <t>F4007</t>
   </si>
   <si>
-    <t>P4002</t>
-  </si>
-  <si>
-    <t>R4079</t>
+    <t>R4087</t>
   </si>
   <si>
     <t>S4007</t>
   </si>
   <si>
-    <t>P4001</t>
-  </si>
-  <si>
-    <t>F4009</t>
+    <t>R4081</t>
+  </si>
+  <si>
+    <t>R4083</t>
   </si>
   <si>
     <t>F4006</t>
   </si>
   <si>
-    <t>44002</t>
+    <t>R4086</t>
   </si>
   <si>
     <t>Variable / CVT</t>
@@ -1705,25 +1708,22 @@
     <t>https://trimactoyota.ca/inventory/2024-toyota-tundra/11510415</t>
   </si>
   <si>
-    <t>https://trimactoyota.ca/inventory/2024-toyota-prius/11160493</t>
-  </si>
-  <si>
-    <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11623023</t>
+    <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11661871</t>
   </si>
   <si>
     <t>https://trimactoyota.ca/inventory/2024-toyota-sienna/11623032</t>
   </si>
   <si>
-    <t>https://trimactoyota.ca/inventory/2024-toyota-prius/10995248</t>
-  </si>
-  <si>
-    <t>https://trimactoyota.ca/inventory/2024-toyota-tundra/11623047</t>
+    <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11649618</t>
+  </si>
+  <si>
+    <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11649627</t>
   </si>
   <si>
     <t>https://trimactoyota.ca/inventory/2024-toyota-tundra/11472929</t>
   </si>
   <si>
-    <t>https://trimactoyota.ca/inventory/2024-toyota-4runner/11623041</t>
+    <t>https://trimactoyota.ca/inventory/2024-toyota-rav4/11661868</t>
   </si>
   <si>
     <t>Fuel Type</t>
@@ -1759,6 +1759,9 @@
     <t>Guardian Gray</t>
   </si>
   <si>
+    <t>Ruby Flare Pearl (Red)</t>
+  </si>
+  <si>
     <t>Magnetic Grey Metallic</t>
   </si>
   <si>
@@ -1777,6 +1780,12 @@
     <t>TrimSE</t>
   </si>
   <si>
+    <t>TrimLimited</t>
+  </si>
+  <si>
+    <t>TrimLE</t>
+  </si>
+  <si>
     <t>TrimSR</t>
   </si>
   <si>
@@ -1798,12 +1807,15 @@
     <t>TH42418</t>
   </si>
   <si>
+    <t>TH44278</t>
+  </si>
+  <si>
+    <t>TH44267</t>
+  </si>
+  <si>
     <t>TH44263</t>
   </si>
   <si>
-    <t>TH44246</t>
-  </si>
-  <si>
     <t>4-Wheel drive</t>
   </si>
   <si>
@@ -1822,9 +1834,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
@@ -1834,22 +1843,10 @@
     <t>Features</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anti-Lock Brakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Backup Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bluetooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cruise Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heated Seats (Front)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keyless Entry</t>
+    <t>4WD Double Cab Sport Premium AT</t>
+  </si>
+  <si>
+    <t>#TB2013</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2248,10 +2245,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>89861</v>
+        <v>53401</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2262,10 +2259,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>65160</v>
+        <v>79526</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2276,10 +2273,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>74590</v>
+        <v>76301</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2290,10 +2287,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>75799</v>
+        <v>74250</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2304,10 +2301,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>45501</v>
+        <v>65160</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2318,10 +2315,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>76301</v>
+        <v>75799</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2332,10 +2329,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>51996</v>
+        <v>60896</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2346,10 +2343,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>74250</v>
+        <v>51741</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2360,10 +2357,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>79526</v>
+        <v>64580</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2374,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>64580</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2388,10 +2385,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>60896</v>
+        <v>23590</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2402,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>53401</v>
+        <v>24175</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2416,10 +2413,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>23590</v>
+        <v>24190</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2430,10 +2427,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>24175</v>
+        <v>26890</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2444,10 +2441,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>24190</v>
+        <v>27090</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2458,10 +2455,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>26890</v>
+        <v>27750</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2472,10 +2469,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>27750</v>
+        <v>31090</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2486,10 +2483,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>31090</v>
+        <v>32450</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2500,10 +2497,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>32450</v>
+        <v>39650</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2514,10 +2511,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>39650</v>
+        <v>32790</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2528,10 +2525,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>32790</v>
+        <v>33250</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2542,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>33250</v>
+        <v>34400</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2556,10 +2553,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>34400</v>
+        <v>34690</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2570,10 +2567,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>34690</v>
+        <v>36050</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2584,10 +2581,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>36050</v>
+        <v>50090</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2598,10 +2595,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>50090</v>
+        <v>37750</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2612,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>37750</v>
+        <v>42650</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2626,10 +2623,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>42650</v>
+        <v>51250</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2640,10 +2637,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>51250</v>
+        <v>45050</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2654,10 +2651,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>45050</v>
+        <v>46890</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2668,10 +2665,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>46890</v>
+        <v>46950</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2682,10 +2679,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>46950</v>
+        <v>47050</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2696,10 +2693,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>47050</v>
+        <v>49890</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2710,10 +2707,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>49890</v>
+        <v>50590</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2724,10 +2721,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>50590</v>
+        <v>51550</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2738,10 +2735,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>51550</v>
+        <v>52090</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2752,10 +2749,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>52090</v>
+        <v>53490</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2766,10 +2763,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>53490</v>
+        <v>53890</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2780,10 +2777,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>53890</v>
+        <v>54487</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2794,10 +2791,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>54487</v>
+        <v>56960</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2808,10 +2805,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>56960</v>
+        <v>57550</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2822,10 +2819,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>57550</v>
+        <v>63490</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2836,10 +2833,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>63490</v>
+        <v>69390</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2850,10 +2847,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>69390</v>
+        <v>69785</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2864,10 +2861,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>69785</v>
+        <v>73450</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2878,10 +2875,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>73450</v>
+        <v>80560</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2889,13 +2886,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>80560</v>
+        <v>24189</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2906,10 +2903,10 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>24189</v>
+        <v>24789</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2917,13 +2914,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>24789</v>
+        <v>27489</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2934,10 +2931,10 @@
         <v>19</v>
       </c>
       <c r="C51">
-        <v>27489</v>
+        <v>28349</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2948,10 +2945,10 @@
         <v>20</v>
       </c>
       <c r="C52">
-        <v>28349</v>
+        <v>31689</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2962,10 +2959,10 @@
         <v>21</v>
       </c>
       <c r="C53">
-        <v>31689</v>
+        <v>33049</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2973,13 +2970,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>33049</v>
+        <v>33389</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2990,10 +2987,10 @@
         <v>24</v>
       </c>
       <c r="C55">
-        <v>33389</v>
+        <v>33849</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3001,13 +2998,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56">
-        <v>33849</v>
+        <v>35289</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3015,13 +3012,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>35289</v>
+        <v>40249</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3029,13 +3026,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C58">
-        <v>40249</v>
+        <v>36649</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3043,13 +3040,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>36649</v>
+        <v>38349</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3060,10 +3057,10 @@
         <v>30</v>
       </c>
       <c r="C60">
-        <v>38349</v>
+        <v>43249</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3071,13 +3068,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C61">
-        <v>43249</v>
+        <v>50689</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3085,13 +3082,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>50689</v>
+        <v>45649</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3102,10 +3099,10 @@
         <v>33</v>
       </c>
       <c r="C63">
-        <v>45649</v>
+        <v>47489</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3113,13 +3110,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>47489</v>
+        <v>51849</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3127,13 +3124,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C65">
-        <v>51849</v>
+        <v>47549</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3144,10 +3141,10 @@
         <v>35</v>
       </c>
       <c r="C66">
-        <v>47549</v>
+        <v>47649</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3158,10 +3155,10 @@
         <v>36</v>
       </c>
       <c r="C67">
-        <v>47649</v>
+        <v>50489</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3172,10 +3169,10 @@
         <v>37</v>
       </c>
       <c r="C68">
-        <v>50489</v>
+        <v>51189</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3186,10 +3183,10 @@
         <v>38</v>
       </c>
       <c r="C69">
-        <v>51189</v>
+        <v>52149</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3200,10 +3197,10 @@
         <v>39</v>
       </c>
       <c r="C70">
-        <v>52149</v>
+        <v>52689</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3214,10 +3211,10 @@
         <v>40</v>
       </c>
       <c r="C71">
-        <v>52689</v>
+        <v>54089</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3228,10 +3225,10 @@
         <v>41</v>
       </c>
       <c r="C72">
-        <v>54089</v>
+        <v>54489</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3239,13 +3236,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73">
-        <v>54489</v>
+        <v>57559</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3253,13 +3250,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C74">
-        <v>57559</v>
+        <v>64089</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3270,10 +3267,10 @@
         <v>46</v>
       </c>
       <c r="C75">
-        <v>64089</v>
+        <v>69989</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3281,13 +3278,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76">
-        <v>69989</v>
+        <v>74049</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3298,10 +3295,10 @@
         <v>49</v>
       </c>
       <c r="C77">
-        <v>74049</v>
+        <v>81159</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3309,13 +3306,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>81159</v>
+        <v>699</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3323,13 +3320,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79">
         <v>24774</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3337,13 +3334,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>34999</v>
+        <v>27689</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3351,13 +3348,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C81">
-        <v>55086</v>
+        <v>34999</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3365,13 +3362,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C82">
-        <v>58149</v>
+        <v>55086</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3379,13 +3376,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>70384</v>
+        <v>58149</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3393,13 +3390,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C84">
-        <v>24538</v>
+        <v>70384</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3407,13 +3404,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C85">
-        <v>25123</v>
+        <v>1048</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3421,13 +3418,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>25138</v>
+        <v>24538</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3435,13 +3432,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>27838</v>
+        <v>25123</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3449,13 +3446,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>28698</v>
+        <v>25138</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3463,13 +3460,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>32038</v>
+        <v>27838</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3477,13 +3474,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>33398</v>
+        <v>28038</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3491,13 +3488,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>33738</v>
+        <v>28698</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3505,13 +3502,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C92">
-        <v>34198</v>
+        <v>32038</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3519,13 +3516,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>35348</v>
+        <v>33398</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3533,13 +3530,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C94">
-        <v>35638</v>
+        <v>33738</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3547,13 +3544,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C95">
-        <v>40598</v>
+        <v>34198</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3561,13 +3558,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C96">
-        <v>36998</v>
+        <v>35348</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3575,13 +3572,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C97">
-        <v>38698</v>
+        <v>35638</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3589,13 +3586,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C98">
-        <v>43598</v>
+        <v>40598</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3603,13 +3600,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C99">
-        <v>51038</v>
+        <v>36998</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3617,13 +3614,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C100">
-        <v>45998</v>
+        <v>38698</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3631,13 +3628,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>47838</v>
+        <v>43598</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3645,13 +3642,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C102">
-        <v>52198</v>
+        <v>51038</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3659,13 +3656,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C103">
-        <v>47898</v>
+        <v>45998</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3673,13 +3670,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C104">
-        <v>47998</v>
+        <v>47838</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3687,13 +3684,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C105">
-        <v>50838</v>
+        <v>52198</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3701,13 +3698,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C106">
-        <v>51538</v>
+        <v>47898</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3715,13 +3712,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C107">
-        <v>52498</v>
+        <v>47998</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3729,13 +3726,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C108">
-        <v>53038</v>
+        <v>50838</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3743,13 +3740,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C109">
-        <v>54438</v>
+        <v>51538</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3757,13 +3754,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>54838</v>
+        <v>52498</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3771,13 +3768,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C111">
-        <v>55435</v>
+        <v>53038</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3785,13 +3782,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C112">
-        <v>57908</v>
+        <v>54438</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3799,13 +3796,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C113">
-        <v>58498</v>
+        <v>54838</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3813,13 +3810,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C114">
-        <v>64438</v>
+        <v>55435</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3827,13 +3824,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C115">
-        <v>70338</v>
+        <v>57908</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3841,13 +3838,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C116">
-        <v>70733</v>
+        <v>58498</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3855,13 +3852,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C117">
-        <v>74398</v>
+        <v>64438</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3869,13 +3866,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C118">
-        <v>81508</v>
+        <v>70338</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3883,13 +3880,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C119">
-        <v>38902</v>
+        <v>70733</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3897,13 +3894,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C120">
-        <v>74272</v>
+        <v>74398</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3911,13 +3908,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C121">
-        <v>54234</v>
+        <v>81508</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3925,13 +3922,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C122">
-        <v>54702</v>
+        <v>86112</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3939,13 +3936,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C123">
-        <v>54642</v>
+        <v>43142</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3953,13 +3950,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C124">
-        <v>38002</v>
+        <v>33142</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3967,13 +3964,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>56502</v>
+        <v>41102</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3981,13 +3978,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C126">
-        <v>60202</v>
+        <v>74272</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3995,13 +3992,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C127">
-        <v>54557</v>
+        <v>54642</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4009,13 +4006,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C128">
-        <v>37182</v>
+        <v>60202</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4023,13 +4020,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C129">
-        <v>60402</v>
+        <v>39157</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4037,13 +4034,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C130">
-        <v>63242</v>
+        <v>51075</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4051,13 +4048,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C131">
-        <v>86112</v>
+        <v>63565</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4065,13 +4062,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C132">
-        <v>51075</v>
+        <v>89370</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4079,13 +4076,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C133">
-        <v>63565</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4093,13 +4090,41 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C134">
-        <v>89370</v>
+        <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4237,6 +4262,8 @@
     <hyperlink ref="D132" r:id="rId131"/>
     <hyperlink ref="D133" r:id="rId132"/>
     <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4244,7 +4271,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4252,130 +4279,130 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
         <v>327</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>328</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>329</v>
       </c>
-      <c r="H2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" t="s">
         <v>331</v>
       </c>
-      <c r="J2" t="s">
-        <v>351</v>
-      </c>
-      <c r="K2" t="s">
-        <v>333</v>
-      </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" t="s">
         <v>327</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>328</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>329</v>
       </c>
-      <c r="H3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" t="s">
         <v>331</v>
       </c>
-      <c r="J3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K3" t="s">
-        <v>333</v>
-      </c>
       <c r="L3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
         <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
         <v>327</v>
@@ -4393,27 +4420,21 @@
         <v>331</v>
       </c>
       <c r="J4" t="s">
-        <v>332</v>
-      </c>
-      <c r="K4" t="s">
-        <v>333</v>
-      </c>
-      <c r="L4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
         <v>325</v>
       </c>
-      <c r="B5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>342</v>
-      </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
         <v>327</v>
@@ -4425,7 +4446,7 @@
         <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="I5" t="s">
         <v>331</v>
@@ -4433,455 +4454,385 @@
       <c r="J5" t="s">
         <v>351</v>
       </c>
-      <c r="K5" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
         <v>325</v>
       </c>
-      <c r="B6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" t="s">
         <v>327</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>328</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>329</v>
       </c>
-      <c r="F6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K6" t="s">
         <v>331</v>
       </c>
-      <c r="H6" t="s">
-        <v>332</v>
-      </c>
-      <c r="I6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J6" t="s">
-        <v>353</v>
+      <c r="L6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
         <v>325</v>
       </c>
-      <c r="B7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" t="s">
         <v>327</v>
       </c>
-      <c r="D7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" t="s">
         <v>329</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>330</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>331</v>
       </c>
-      <c r="H7" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J7" t="s">
-        <v>354</v>
+      <c r="L7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
         <v>343</v>
       </c>
       <c r="E8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" t="s">
         <v>327</v>
       </c>
-      <c r="F8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="H8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" t="s">
         <v>331</v>
       </c>
-      <c r="J8" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" t="s">
-        <v>333</v>
-      </c>
       <c r="L8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" t="s">
         <v>325</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>326</v>
       </c>
-      <c r="C9" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>327</v>
       </c>
-      <c r="F9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" t="s">
         <v>329</v>
       </c>
-      <c r="H9" t="s">
-        <v>352</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K9" t="s">
         <v>331</v>
       </c>
-      <c r="J9" t="s">
-        <v>332</v>
-      </c>
-      <c r="K9" t="s">
-        <v>333</v>
-      </c>
       <c r="L9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
         <v>325</v>
       </c>
-      <c r="B10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" t="s">
         <v>327</v>
       </c>
-      <c r="F10" t="s">
-        <v>328</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" t="s">
         <v>329</v>
       </c>
-      <c r="H10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" t="s">
         <v>331</v>
       </c>
-      <c r="J10" t="s">
-        <v>351</v>
-      </c>
-      <c r="K10" t="s">
-        <v>333</v>
-      </c>
       <c r="L10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" t="s">
         <v>325</v>
       </c>
-      <c r="B11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" t="s">
-        <v>348</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" t="s">
         <v>327</v>
       </c>
-      <c r="F11" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" t="s">
         <v>329</v>
       </c>
-      <c r="H11" t="s">
-        <v>352</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" t="s">
         <v>331</v>
       </c>
-      <c r="J11" t="s">
-        <v>332</v>
-      </c>
-      <c r="K11" t="s">
-        <v>333</v>
-      </c>
       <c r="L11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" t="s">
         <v>325</v>
       </c>
-      <c r="B12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" t="s">
         <v>349</v>
       </c>
-      <c r="E12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>329</v>
       </c>
-      <c r="H12" t="s">
-        <v>352</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>348</v>
+      </c>
+      <c r="K12" t="s">
         <v>331</v>
       </c>
-      <c r="J12" t="s">
-        <v>351</v>
-      </c>
-      <c r="K12" t="s">
-        <v>333</v>
-      </c>
       <c r="L12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s">
         <v>325</v>
       </c>
-      <c r="B13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C13" t="s">
-        <v>342</v>
-      </c>
-      <c r="D13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" t="s">
         <v>327</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>328</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>329</v>
       </c>
-      <c r="H13" t="s">
-        <v>352</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" t="s">
         <v>331</v>
       </c>
-      <c r="J13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K13" t="s">
-        <v>333</v>
-      </c>
       <c r="L13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D14" t="s">
         <v>347</v>
       </c>
       <c r="E14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" t="s">
         <v>327</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>328</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>329</v>
       </c>
-      <c r="H14" t="s">
-        <v>352</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>348</v>
+      </c>
+      <c r="K14" t="s">
         <v>331</v>
       </c>
-      <c r="J14" t="s">
-        <v>351</v>
-      </c>
-      <c r="K14" t="s">
-        <v>333</v>
-      </c>
       <c r="L14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
         <v>343</v>
       </c>
       <c r="E15" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" t="s">
         <v>327</v>
       </c>
-      <c r="F15" t="s">
-        <v>328</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" t="s">
         <v>329</v>
       </c>
-      <c r="H15" t="s">
-        <v>330</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>348</v>
+      </c>
+      <c r="K15" t="s">
         <v>331</v>
       </c>
-      <c r="J15" t="s">
-        <v>351</v>
-      </c>
-      <c r="K15" t="s">
-        <v>333</v>
-      </c>
       <c r="L15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" t="s">
-        <v>344</v>
-      </c>
-      <c r="E16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" t="s">
-        <v>330</v>
-      </c>
-      <c r="I16" t="s">
-        <v>331</v>
-      </c>
-      <c r="J16" t="s">
-        <v>351</v>
-      </c>
-      <c r="K16" t="s">
-        <v>333</v>
-      </c>
-      <c r="L16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17" t="s">
-        <v>335</v>
-      </c>
-      <c r="C17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" t="s">
-        <v>328</v>
-      </c>
-      <c r="G17" t="s">
-        <v>329</v>
-      </c>
-      <c r="H17" t="s">
-        <v>352</v>
-      </c>
-      <c r="I17" t="s">
-        <v>331</v>
-      </c>
-      <c r="J17" t="s">
-        <v>351</v>
-      </c>
-      <c r="K17" t="s">
-        <v>333</v>
-      </c>
-      <c r="L17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4842,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4899,129 +4850,120 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B2">
-        <v>24262</v>
+        <v>32577</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" t="s">
         <v>386</v>
       </c>
-      <c r="F2" t="s">
-        <v>391</v>
-      </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B3">
-        <v>24687</v>
+        <v>32652</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" t="s">
         <v>387</v>
       </c>
-      <c r="F3" t="s">
-        <v>392</v>
-      </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B4">
-        <v>29736</v>
+        <v>32868</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
-        <v>393</v>
-      </c>
       <c r="G4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" t="s">
         <v>402</v>
       </c>
-      <c r="H4" t="s">
-        <v>408</v>
-      </c>
       <c r="I4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B5">
-        <v>32652</v>
+        <v>32983</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I5" t="s">
         <v>411</v>
@@ -5029,122 +4971,148 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6">
+        <v>33426</v>
+      </c>
+      <c r="D6" t="s">
         <v>378</v>
       </c>
-      <c r="B6">
-        <v>32983</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>383</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B7">
-        <v>33426</v>
+        <v>34026</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I7" t="s">
         <v>410</v>
-      </c>
-      <c r="I7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B8">
-        <v>33851</v>
+        <v>34600</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B9">
-        <v>34422</v>
+        <v>40247</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B10">
-        <v>34824</v>
+        <v>42974</v>
       </c>
       <c r="D10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" t="s">
         <v>384</v>
       </c>
-      <c r="E10" t="s">
-        <v>390</v>
-      </c>
       <c r="F10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11">
+        <v>42982</v>
+      </c>
+      <c r="D11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" t="s">
+        <v>409</v>
+      </c>
+      <c r="I11" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5163,16 +5131,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>413</v>
@@ -5184,85 +5152,85 @@
         <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G2">
         <v>29142</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G3">
         <v>211388</v>
       </c>
       <c r="H3" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G4">
         <v>207405</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5273,74 +5241,74 @@
         <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G5">
         <v>61354</v>
       </c>
       <c r="H5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G6">
         <v>210766</v>
       </c>
       <c r="H6" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" t="s">
         <v>420</v>
       </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>422</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G7">
         <v>5563</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5358,167 +5326,167 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B2">
-        <v>26350</v>
+        <v>28165</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3">
-        <v>28165</v>
+        <v>28650</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E3" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B4">
-        <v>28650</v>
+        <v>32720</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B5">
-        <v>32720</v>
+        <v>33120</v>
       </c>
       <c r="C5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B6">
         <v>33120</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F6" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B7">
-        <v>33120</v>
+        <v>34800</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B8">
-        <v>33120</v>
+        <v>35180</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B9">
         <v>35180</v>
@@ -5527,18 +5495,18 @@
         <v>472</v>
       </c>
       <c r="D9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F9" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B10">
         <v>35180</v>
@@ -5547,193 +5515,193 @@
         <v>472</v>
       </c>
       <c r="D10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B11">
-        <v>35180</v>
+        <v>37980</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D11" t="s">
         <v>482</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B12">
-        <v>37980</v>
+        <v>38880</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F12" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B13">
         <v>38880</v>
       </c>
       <c r="C13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F13" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B14">
-        <v>38880</v>
+        <v>39365</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F14" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B15">
-        <v>39365</v>
+        <v>41080</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F15" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B16">
-        <v>41080</v>
+        <v>41335</v>
       </c>
       <c r="C16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B17">
         <v>41335</v>
       </c>
       <c r="C17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D17" t="s">
         <v>479</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B18">
         <v>41765</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F18" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B19">
-        <v>42880</v>
+        <v>43120</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D19" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5744,16 +5712,16 @@
         <v>43375</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
         <v>479</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5764,16 +5732,16 @@
         <v>46910</v>
       </c>
       <c r="C21" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F21" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5784,16 +5752,16 @@
         <v>48780</v>
       </c>
       <c r="C22" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E22" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5804,16 +5772,16 @@
         <v>48780</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D23" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E23" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F23" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5824,16 +5792,16 @@
         <v>48980</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D24" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E24" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F24" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5841,39 +5809,39 @@
         <v>459</v>
       </c>
       <c r="B25">
-        <v>54680</v>
+        <v>50570</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="D25" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E25" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B26">
         <v>54680</v>
       </c>
       <c r="C26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5881,19 +5849,19 @@
         <v>460</v>
       </c>
       <c r="B27">
-        <v>59830</v>
+        <v>54680</v>
       </c>
       <c r="C27" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F27" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5904,16 +5872,16 @@
         <v>59830</v>
       </c>
       <c r="C28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F28" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5921,19 +5889,19 @@
         <v>462</v>
       </c>
       <c r="B29">
-        <v>60380</v>
+        <v>59830</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="F29" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5941,19 +5909,19 @@
         <v>463</v>
       </c>
       <c r="B30">
-        <v>60435</v>
+        <v>60380</v>
       </c>
       <c r="C30" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5961,19 +5929,19 @@
         <v>464</v>
       </c>
       <c r="B31">
-        <v>64475</v>
+        <v>60435</v>
       </c>
       <c r="C31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F31" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5981,39 +5949,39 @@
         <v>465</v>
       </c>
       <c r="B32">
-        <v>64580</v>
+        <v>64475</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="E32" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="F32" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B33">
-        <v>64790</v>
+        <v>64580</v>
       </c>
       <c r="C33" t="s">
         <v>472</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E33" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F33" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6021,19 +5989,19 @@
         <v>466</v>
       </c>
       <c r="B34">
-        <v>67135</v>
+        <v>64790</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D34" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F34" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6041,39 +6009,39 @@
         <v>467</v>
       </c>
       <c r="B35">
-        <v>72275</v>
+        <v>67135</v>
       </c>
       <c r="C35" t="s">
         <v>476</v>
       </c>
       <c r="D35" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E35" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F35" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>468</v>
+        <v>89</v>
       </c>
       <c r="B36">
-        <v>75380</v>
+        <v>71680</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F36" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -6083,7 +6051,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6091,221 +6059,196 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D5" t="s">
-        <v>554</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
-        <v>554</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D11" t="s">
-        <v>554</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C13" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>555</v>
       </c>
       <c r="E15" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>538</v>
-      </c>
-      <c r="B17" t="s">
-        <v>545</v>
-      </c>
-      <c r="C17" t="s">
-        <v>553</v>
-      </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" t="s">
-        <v>555</v>
-      </c>
-      <c r="F17" s="2" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6318,7 +6261,6 @@
     <hyperlink ref="F11" r:id="rId5"/>
     <hyperlink ref="F13" r:id="rId6"/>
     <hyperlink ref="F15" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6326,7 +6268,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6334,25 +6276,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>565</v>
@@ -6366,22 +6308,22 @@
         <v>76320</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H2" t="s">
-        <v>597</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6395,19 +6337,19 @@
         <v>573</v>
       </c>
       <c r="D3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6418,22 +6360,22 @@
         <v>48790</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
       <c r="D4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F4" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G4" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H4" t="s">
-        <v>597</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6447,19 +6389,19 @@
         <v>574</v>
       </c>
       <c r="D5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H5" t="s">
-        <v>597</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6470,22 +6412,22 @@
         <v>28800</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="D6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E6" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="G6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6499,45 +6441,45 @@
         <v>575</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H7" t="s">
-        <v>597</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B8">
-        <v>62550</v>
+        <v>45005</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>576</v>
       </c>
       <c r="D8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E8" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F8" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G8" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6545,25 +6487,51 @@
         <v>572</v>
       </c>
       <c r="B9">
-        <v>36850</v>
+        <v>33150</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E9" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B10">
+        <v>62550</v>
+      </c>
+      <c r="C10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10" t="s">
+        <v>594</v>
+      </c>
+      <c r="F10" t="s">
         <v>595</v>
       </c>
-      <c r="H9" t="s">
-        <v>598</v>
+      <c r="G10" t="s">
+        <v>599</v>
+      </c>
+      <c r="H10" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -6573,7 +6541,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6581,206 +6549,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B2" t="s">
-        <v>602</v>
+        <v>321</v>
+      </c>
+      <c r="B2">
+        <v>58150</v>
       </c>
       <c r="C2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E2" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D4" t="s">
-        <v>604</v>
-      </c>
-      <c r="E4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B5" t="s">
-        <v>602</v>
-      </c>
-      <c r="C5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>604</v>
-      </c>
-      <c r="E5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>601</v>
-      </c>
-      <c r="B6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C7" t="s">
-        <v>603</v>
-      </c>
-      <c r="D7" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>602</v>
-      </c>
-      <c r="B8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C8" t="s">
-        <v>604</v>
-      </c>
-      <c r="D8" t="s">
-        <v>605</v>
-      </c>
-      <c r="E8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9" t="s">
-        <v>602</v>
-      </c>
-      <c r="C9" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" t="s">
-        <v>604</v>
-      </c>
-      <c r="E9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>601</v>
-      </c>
-      <c r="B10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C10" t="s">
-        <v>603</v>
-      </c>
-      <c r="D10" t="s">
-        <v>604</v>
-      </c>
-      <c r="E10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>601</v>
-      </c>
-      <c r="B11" t="s">
-        <v>602</v>
-      </c>
-      <c r="C11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D11" t="s">
-        <v>604</v>
-      </c>
-      <c r="E11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>601</v>
-      </c>
-      <c r="B12" t="s">
-        <v>602</v>
-      </c>
-      <c r="C12" t="s">
-        <v>603</v>
-      </c>
-      <c r="D12" t="s">
-        <v>604</v>
-      </c>
-      <c r="E12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>601</v>
-      </c>
-      <c r="B13" t="s">
-        <v>602</v>
-      </c>
-      <c r="C13" t="s">
-        <v>603</v>
-      </c>
-      <c r="D13" t="s">
-        <v>604</v>
-      </c>
-      <c r="E13" t="s">
-        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -6798,15 +6593,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>39279</v>
@@ -6814,7 +6609,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>51219</v>
@@ -6822,7 +6617,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>52079</v>
@@ -6830,7 +6625,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>52079</v>
@@ -6838,7 +6633,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>57479</v>
@@ -6846,7 +6641,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>59209</v>
@@ -6854,7 +6649,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>59799</v>
@@ -6862,15 +6657,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9">
-        <v>62349</v>
+        <v>64979</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>64979</v>
@@ -6878,7 +6673,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>64979</v>
@@ -6886,18 +6681,18 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12">
-        <v>64979</v>
+        <v>72419</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>72079</v>
+        <v>74649</v>
       </c>
     </row>
   </sheetData>
@@ -6907,7 +6702,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6915,124 +6710,209 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B10" t="s">
         <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -7042,7 +6922,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7050,254 +6930,240 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7307,7 +7173,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7315,223 +7181,172 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7541,7 +7356,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7549,86 +7364,59 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2">
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="s">
         <v>209</v>
-      </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3">
-        <v>183</v>
-      </c>
-      <c r="F3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7636,7 +7424,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7644,175 +7432,285 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
         <v>238</v>
       </c>
-      <c r="C16" t="s">
-        <v>253</v>
+      <c r="C20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7822,7 +7720,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7830,134 +7728,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7967,7 +7843,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7975,45 +7851,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E2">
         <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
         <v>315</v>
@@ -8021,22 +7897,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E3">
         <v>619</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="G3" t="s">
         <v>316</v>
@@ -8044,22 +7920,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E4">
         <v>524</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
         <v>317</v>
@@ -8067,22 +7943,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E5">
-        <v>819</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="G5" t="s">
         <v>318</v>
@@ -8090,22 +7966,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>899</v>
       </c>
       <c r="F6" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G6" t="s">
         <v>319</v>
@@ -8113,71 +7989,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G7" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8">
-        <v>899</v>
-      </c>
-      <c r="F8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E9">
-        <v>219</v>
-      </c>
-      <c r="F9" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/scrapping_py/MaritimeToyota.xlsx
+++ b/Projects/scrapping_py/MaritimeToyota.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="660">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -278,27 +278,21 @@
     <t>Toyota 2025 TUNDRA HYBRIDE CREWMAX LIMITED Limited Hybrid</t>
   </si>
   <si>
+    <t>Toyota 2025 TUNDRA CREWMAX LIMITED Limited</t>
+  </si>
+  <si>
     <t>Toyota 2025 Prius XLE AWD XLE</t>
   </si>
   <si>
-    <t>Toyota 2025 TUNDRA CREWMAX LIMITED Limited</t>
-  </si>
-  <si>
     <t>Toyota 2025 TACOMA HV DOUBLE CAB Hybrid</t>
   </si>
   <si>
-    <t>Toyota 2025 Tacoma DOUBLE CAB AT</t>
-  </si>
-  <si>
-    <t>Toyota 2025 RAV4 LE AWD LE</t>
-  </si>
-  <si>
-    <t>Toyota 2025 TUNDRA CREWMAX SR SR</t>
-  </si>
-  <si>
     <t>Toyota 2025 TUNDRA CREWMAX PLATINUM Platinum</t>
   </si>
   <si>
+    <t>Toyota 2025 RAV4 XLE AWD XLE</t>
+  </si>
+  <si>
     <t>Toyota 2026 GR Supra 3.0T MT 3.0T</t>
   </si>
   <si>
@@ -308,33 +302,27 @@
     <t>$78825</t>
   </si>
   <si>
+    <t>$71255</t>
+  </si>
+  <si>
     <t>$38165</t>
   </si>
   <si>
-    <t>$71255</t>
-  </si>
-  <si>
     <t>$84739</t>
   </si>
   <si>
     <t>$64740</t>
   </si>
   <si>
-    <t>$51850</t>
-  </si>
-  <si>
-    <t>$33685</t>
+    <t>$83146</t>
+  </si>
+  <si>
+    <t>$37425</t>
   </si>
   <si>
     <t>$75170</t>
   </si>
   <si>
-    <t>$64236</t>
-  </si>
-  <si>
-    <t>$83146</t>
-  </si>
-  <si>
     <t>$69685</t>
   </si>
   <si>
@@ -356,36 +344,27 @@
     <t>Stock #25143</t>
   </si>
   <si>
+    <t>Stock #25217</t>
+  </si>
+  <si>
     <t>Stock #25177</t>
   </si>
   <si>
-    <t>Stock #25217</t>
-  </si>
-  <si>
     <t>Stock #25283</t>
   </si>
   <si>
     <t>Stock #25239</t>
   </si>
   <si>
-    <t>Stock #25094</t>
-  </si>
-  <si>
-    <t>Stock #25307</t>
+    <t>Stock #25124</t>
+  </si>
+  <si>
+    <t>Stock #25322</t>
   </si>
   <si>
     <t>Stock #25209</t>
   </si>
   <si>
-    <t>Stock #25105</t>
-  </si>
-  <si>
-    <t>Stock #25311</t>
-  </si>
-  <si>
-    <t>Stock #25124</t>
-  </si>
-  <si>
     <t>Stock #26001</t>
   </si>
   <si>
@@ -404,40 +383,70 @@
     <t>Stock Number</t>
   </si>
   <si>
+    <t>2025 Corolla  - Hybrid LE</t>
+  </si>
+  <si>
     <t>2025 RAV4  - LE</t>
   </si>
   <si>
-    <t>2025 GR Corolla  - GR CORE</t>
+    <t>2025 Prius Plug-in Hybrid  - SE</t>
+  </si>
+  <si>
+    <t>2025 Prius Plug-in Hybrid  - XSE</t>
   </si>
   <si>
     <t>2025 BZ4X  - XLE</t>
   </si>
   <si>
+    <t>$31,224</t>
+  </si>
+  <si>
     <t>$36,489</t>
   </si>
   <si>
-    <t>$51,149</t>
+    <t>$43,039</t>
+  </si>
+  <si>
+    <t>$47,519</t>
   </si>
   <si>
     <t>$55,759</t>
   </si>
   <si>
+    <t>All Wheel DriveCVT4 Cylinder Engine 1.8L</t>
+  </si>
+  <si>
+    <t>Front Wheel Drive4 Cylinder Engine 2.0L</t>
+  </si>
+  <si>
     <t>All Wheel DriveAutomatic0L</t>
   </si>
   <si>
+    <t>VIN JTDBDMHEXS3022593</t>
+  </si>
+  <si>
     <t>VIN 2T3B1RFV1SC537201</t>
   </si>
   <si>
-    <t>VIN JTNABAAE4SA021246</t>
+    <t>VIN JTDACACU2S3049072</t>
+  </si>
+  <si>
+    <t>VIN JTDACACU3S3047749</t>
   </si>
   <si>
     <t>VIN JTMABACA3SA100650</t>
   </si>
   <si>
+    <t>Stock #F634</t>
+  </si>
+  <si>
     <t>Stock #F577</t>
   </si>
   <si>
-    <t>Stock #F599</t>
+    <t>Stock #F631</t>
+  </si>
+  <si>
+    <t>Stock #F632</t>
   </si>
   <si>
     <t>Stock #F504</t>
@@ -746,15 +755,6 @@
     <t>$62,241   Pricing excludes licensing and tax.</t>
   </si>
   <si>
-    <t>$58,355   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$39,455   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
-    <t>$35,715   Pricing excludes licensing and tax.</t>
-  </si>
-  <si>
     <t>$94,628   $-7,500   $87,128   Pricing excludes licensing and tax.</t>
   </si>
   <si>
@@ -806,18 +806,6 @@
     <t>[{"label":"Engine:","value":"Intercooled Turbo Regular Unleaded I-4 2.4 L/146"},{"label":"Manufacturer Exterior Colour:","value":"Wind Chill Pearl"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N081164"}]</t>
   </si>
   <si>
-    <t>[{"label":"Engine:","value":"Twin Turbo Regular Unleaded V-6 3.4 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N318969"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"White"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N541738"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Magnetic Grey Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N544082"}]</t>
-  </si>
-  <si>
-    <t>[{"label":"Engine:","value":"Regular Unleaded I-4 2.5 L/152"},{"label":"Manufacturer Exterior Colour:","value":"Silver Sky Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N541836"}]</t>
-  </si>
-  <si>
     <t>[{"label":"Engine:","value":"Twin Turbo Gas/Electric V-6 3.5 L/210"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Stock #:","value":"N081995"}]</t>
   </si>
   <si>
@@ -833,15 +821,6 @@
     <t>[{"label":"Engine:","value":"Gas/Electric I-4 2.0 L/121"},{"label":"Manufacturer Exterior Colour:","value":"Midnight Black Metallic"},{"label":"Interior Colour:","value":"Black"},{"label":"Stock #:","value":"N048165"}]</t>
   </si>
   <si>
-    <t>Toyota 2025 Corolla in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2025 Corolla Hybrid in Sydney</t>
-  </si>
-  <si>
-    <t>Toyota 2025 RAV4 in Sydney</t>
-  </si>
-  <si>
     <t>Toyota 2025 GR86 in Sydney</t>
   </si>
   <si>
@@ -860,9 +839,6 @@
     <t>Toyota 2025 GR Corolla in Sydney</t>
   </si>
   <si>
-    <t>Toyota 2025 Highlander in Sydney</t>
-  </si>
-  <si>
     <t>Toyota 2024 Crown in Sydney</t>
   </si>
   <si>
@@ -890,21 +866,9 @@
     <t>Toyota 2025 Sequoia in Sydney</t>
   </si>
   <si>
-    <t>27,158</t>
-  </si>
-  <si>
-    <t>28,590</t>
-  </si>
-  <si>
-    <t>33,685</t>
-  </si>
-  <si>
     <t>35,610</t>
   </si>
   <si>
-    <t>37,425</t>
-  </si>
-  <si>
     <t>38,165</t>
   </si>
   <si>
@@ -914,18 +878,12 @@
     <t>49,940</t>
   </si>
   <si>
-    <t>50,690</t>
-  </si>
-  <si>
     <t>52,100</t>
   </si>
   <si>
     <t>56,517</t>
   </si>
   <si>
-    <t>58,211</t>
-  </si>
-  <si>
     <t>61,690</t>
   </si>
   <si>
@@ -935,9 +893,6 @@
     <t>62,540</t>
   </si>
   <si>
-    <t>64,995</t>
-  </si>
-  <si>
     <t>66,655</t>
   </si>
   <si>
@@ -974,174 +929,192 @@
     <t>[{"label":"30 KM","value":"30 KM"}]</t>
   </si>
   <si>
+    <t>2025 Toyota Corolla Cross Hybrid SE 4dr All-Wheel Drive</t>
+  </si>
+  <si>
+    <t>$37374</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Corolla Cross Hybrid SE 4dr All-Wheel DriveHybrid SE AWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$37</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$234*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t>N46252</t>
+  </si>
+  <si>
     <t>2025 Toyota Prius XLE 5dr AWD-e Hatchback</t>
   </si>
   <si>
+    <t>2025 Toyota Sienna LE 8-Passenger 4dr Front-Wheel Drive Passenger Van</t>
+  </si>
+  <si>
+    <t>2025 Toyota Prius Plug-In Hybrid XSE Premium 4dr Hatchback</t>
+  </si>
+  <si>
+    <t>2025 Toyota Grand Highlander XLE 4dr All-Wheel Drive</t>
+  </si>
+  <si>
+    <t>2025 Toyota GR Corolla 5dr Hatchback</t>
+  </si>
+  <si>
+    <t>2025 Toyota Tundra SR 4dr 4x4 CrewMax 5.5 ft. box</t>
+  </si>
+  <si>
+    <t>2025 Toyota Tacoma Hybrid 4x4 Double Cab 5 ft. box</t>
+  </si>
+  <si>
+    <t>2025 Toyota Tacoma Hybrid 4x4 Double Cab 6 ft. box</t>
+  </si>
+  <si>
+    <t>2025 Toyota Tundra Hybrid Platinum 4dr 4x4 CrewMax 5.5 ft. box</t>
+  </si>
+  <si>
     <t>$40624</t>
   </si>
   <si>
+    <t>$50629</t>
+  </si>
+  <si>
+    <t>$50994</t>
+  </si>
+  <si>
+    <t>$53389</t>
+  </si>
+  <si>
+    <t>$59131</t>
+  </si>
+  <si>
+    <t>$61096</t>
+  </si>
+  <si>
+    <t>$64410</t>
+  </si>
+  <si>
+    <t>$67269</t>
+  </si>
+  <si>
+    <t>$69184</t>
+  </si>
+  <si>
+    <t>$81353</t>
+  </si>
+  <si>
+    <t>$87268</t>
+  </si>
+  <si>
+    <t>$88384</t>
+  </si>
+  <si>
     <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Prius XLE 5dr AWD-e HatchbackXLE AWD-e</t>
   </si>
   <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Sienna LE 8-Passenger 4dr Front-Wheel Drive Passenger VanLE 8-Passenger FWD</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Prius Plug-In Hybrid XSE Premium 4dr HatchbackXSE Premium Auto</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Grand Highlander XLE 4dr All-Wheel DriveXLE AWD</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota GR Corolla 5dr HatchbackManual</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota GR Corolla 5dr HatchbackAutomatic</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tundra SR 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax SR</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tacoma Hybrid 4x4 Double Cab 5 ft. box4x4 Double Cab Auto SB Hybrid</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tacoma Hybrid 4x4 Double Cab 6 ft. box4x4 Double Cab Auto Hybrid</t>
+  </si>
+  <si>
+    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tundra Hybrid Platinum 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Platinum Hybrid</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Our Price:$40</t>
   </si>
   <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$257*(Bi-weekly)</t>
+    <t xml:space="preserve"> Our Price:$50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our Price:$88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$262*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$318*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$306*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$329*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$367*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$379*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$380*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$374*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$384*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$468*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$508*(Bi-weekly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$566*(Bi-weekly)</t>
   </si>
   <si>
     <t>N46893</t>
   </si>
   <si>
-    <t>2025 Toyota Sienna LE 8-Passenger 4dr Front-Wheel Drive Passenger Van</t>
-  </si>
-  <si>
-    <t>2025 Toyota Prius Plug-In Hybrid XSE Premium 4dr Hatchback</t>
-  </si>
-  <si>
-    <t>2025 Toyota Grand Highlander XLE 4dr All-Wheel Drive</t>
-  </si>
-  <si>
-    <t>2025 Toyota GR Corolla 5dr Hatchback</t>
-  </si>
-  <si>
-    <t>2025 Toyota Tundra SR 4dr 4x4 CrewMax 5.5 ft. box</t>
-  </si>
-  <si>
-    <t>2025 Toyota Tacoma Hybrid 4x4 Double Cab 5 ft. box</t>
-  </si>
-  <si>
-    <t>2025 Toyota Tacoma Hybrid 4x4 Double Cab 6 ft. box</t>
-  </si>
-  <si>
-    <t>2025 Toyota Tundra Hybrid Platinum 4dr 4x4 CrewMax 5.5 ft. box</t>
-  </si>
-  <si>
-    <t>$50629</t>
-  </si>
-  <si>
-    <t>$50994</t>
-  </si>
-  <si>
-    <t>$53389</t>
-  </si>
-  <si>
-    <t>$59131</t>
-  </si>
-  <si>
-    <t>$61096</t>
-  </si>
-  <si>
-    <t>$64410</t>
-  </si>
-  <si>
-    <t>$67269</t>
-  </si>
-  <si>
-    <t>$69184</t>
-  </si>
-  <si>
-    <t>$81353</t>
-  </si>
-  <si>
-    <t>$87268</t>
-  </si>
-  <si>
-    <t>$88384</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Sienna LE 8-Passenger 4dr Front-Wheel Drive Passenger VanLE 8-Passenger FWD</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Prius Plug-In Hybrid XSE Premium 4dr HatchbackXSE Premium Auto</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Grand Highlander XLE 4dr All-Wheel DriveXLE AWD</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota GR Corolla 5dr HatchbackManual</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota GR Corolla 5dr HatchbackAutomatic</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tundra SR 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax SR</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tacoma Hybrid 4x4 Double Cab 5 ft. box4x4 Double Cab Auto SB Hybrid</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tacoma Hybrid 4x4 Double Cab 6 ft. box4x4 Double Cab Auto Hybrid</t>
-  </si>
-  <si>
-    <t>Appraise My Trade InApply for FinancingBook a Test Drive2025 Toyota Tundra Hybrid Platinum 4dr 4x4 CrewMax 5.5 ft. box4x4 Crewmax Platinum Hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$64</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$67</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$69</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$81</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$87</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Our Price:$88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$315*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$305*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$322*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$379*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$392*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$372*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$369*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$380*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$463*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$503*(Bi-weekly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price does not include taxes and licensing fees.Lease from$554*(Bi-weekly)</t>
-  </si>
-  <si>
     <t>N46910</t>
   </si>
   <si>
@@ -1595,13 +1568,10 @@
     <t>New 2025 Toyota GR Corolla Premium 5D Hatchback</t>
   </si>
   <si>
-    <t>New 2025 Toyota 4Runner TRD Off-Road Premium i-FORCE MAX SUV</t>
-  </si>
-  <si>
     <t>New 2025 Toyota Land Cruiser SUV</t>
   </si>
   <si>
-    <t>New 2025 Toyota 4Runner Limited SUV</t>
+    <t>New 2025 Toyota 4Runner TRD Off-Road Premium 4D Sport Utility</t>
   </si>
   <si>
     <t>New 2025 Toyota Tacoma TRD OFF Road 4D CrewMax</t>
@@ -1622,15 +1592,21 @@
     <t>New 2026 Toyota Crown NIGHTSHADE Sedan</t>
   </si>
   <si>
+    <t>New 2025 Toyota Crown Signia Limited Crossover</t>
+  </si>
+  <si>
+    <t>New 2025 Toyota Tacoma TRD OFF-ROAD 4D Double Cab</t>
+  </si>
+  <si>
     <t>Premium</t>
   </si>
   <si>
-    <t>TRD Off-Road Premium i-FORCE MAX</t>
-  </si>
-  <si>
     <t>LAND CRUISER</t>
   </si>
   <si>
+    <t>TRD Off-Road Premium</t>
+  </si>
+  <si>
     <t>TRD OFF Road</t>
   </si>
   <si>
@@ -1652,33 +1628,27 @@
     <t>T018296</t>
   </si>
   <si>
+    <t>T005356</t>
+  </si>
+  <si>
     <t>T029558</t>
   </si>
   <si>
-    <t>T032371</t>
+    <t>T145902</t>
   </si>
   <si>
     <t>JTNABAAE4SA018296</t>
   </si>
   <si>
+    <t>JTEABFAJ9SK041643</t>
+  </si>
+  <si>
     <t>JTEVB5BR4S5005356</t>
   </si>
   <si>
-    <t>JTEABFAJ9SK041643</t>
-  </si>
-  <si>
-    <t>JTEVB5BR5S5007598</t>
-  </si>
-  <si>
-    <t>JTEVA5BR2S5027200</t>
-  </si>
-  <si>
     <t>3TYLC5LN0ST029558</t>
   </si>
   <si>
-    <t>3TYLC5LNXST032371</t>
-  </si>
-  <si>
     <t>JTEVB5BR7S5009370</t>
   </si>
   <si>
@@ -1694,27 +1664,33 @@
     <t>JTDAAAAF6T3040452</t>
   </si>
   <si>
+    <t>JTDACAAJ2S3025282</t>
+  </si>
+  <si>
+    <t>JTEVA5BR6S5034330</t>
+  </si>
+  <si>
+    <t>3TMLB5JN8SM145902</t>
+  </si>
+  <si>
     <t>Ice</t>
   </si>
   <si>
     <t>Ice Cap</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>Cutting Edge</t>
   </si>
   <si>
     <t>Storm Cloud</t>
   </si>
   <si>
+    <t>Oxygen White</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>Black Softex</t>
-  </si>
-  <si>
     <t>Black Leather</t>
   </si>
   <si>
@@ -1733,18 +1709,21 @@
     <t>Boulder/Black Fabric W/Smoke Silver</t>
   </si>
   <si>
+    <t>Boulder Fabric</t>
+  </si>
+  <si>
     <t>AWD</t>
   </si>
   <si>
+    <t>FT4WD</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
     <t>PT4WD</t>
   </si>
   <si>
-    <t>FT4WD</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
     <t>2025 GR Corolla  - CORE</t>
   </si>
   <si>
@@ -1868,9 +1847,6 @@
     <t>TrimPlatinum (4x4 Crewmax)</t>
   </si>
   <si>
-    <t>TrimLimited (4x4 Crewmax)</t>
-  </si>
-  <si>
     <t>TrimManual</t>
   </si>
   <si>
@@ -1917,9 +1893,6 @@
   </si>
   <si>
     <t>TH45505</t>
-  </si>
-  <si>
-    <t>TH45506</t>
   </si>
   <si>
     <t>TH45499</t>
@@ -3374,1046 +3347,1046 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B2">
         <v>47281</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2" t="s">
         <v>419</v>
       </c>
-      <c r="G2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H2" t="s">
-        <v>428</v>
-      </c>
       <c r="I2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B3">
         <v>47281</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" t="s">
         <v>419</v>
       </c>
-      <c r="G3" t="s">
-        <v>389</v>
-      </c>
-      <c r="H3" t="s">
-        <v>428</v>
-      </c>
       <c r="I3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B4">
         <v>77736</v>
       </c>
       <c r="C4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L4" t="s">
         <v>385</v>
       </c>
-      <c r="D4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
+        <v>386</v>
+      </c>
+      <c r="N4" t="s">
         <v>428</v>
-      </c>
-      <c r="I4" t="s">
-        <v>391</v>
-      </c>
-      <c r="J4" t="s">
-        <v>392</v>
-      </c>
-      <c r="K4" t="s">
-        <v>393</v>
-      </c>
-      <c r="L4" t="s">
-        <v>394</v>
-      </c>
-      <c r="M4" t="s">
-        <v>395</v>
-      </c>
-      <c r="N4" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B5">
         <v>47536</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" t="s">
         <v>419</v>
       </c>
-      <c r="G5" t="s">
-        <v>389</v>
-      </c>
-      <c r="H5" t="s">
-        <v>428</v>
-      </c>
       <c r="I5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B6">
         <v>53681</v>
       </c>
       <c r="C6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" t="s">
+        <v>423</v>
+      </c>
+      <c r="K6" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" t="s">
         <v>385</v>
       </c>
-      <c r="D6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F6" t="s">
-        <v>421</v>
-      </c>
-      <c r="G6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H6" t="s">
-        <v>428</v>
-      </c>
-      <c r="I6" t="s">
-        <v>391</v>
-      </c>
-      <c r="J6" t="s">
-        <v>432</v>
-      </c>
-      <c r="K6" t="s">
-        <v>393</v>
-      </c>
-      <c r="L6" t="s">
-        <v>394</v>
-      </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B7">
         <v>33941</v>
       </c>
       <c r="C7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L7" t="s">
         <v>385</v>
       </c>
-      <c r="D7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H7" t="s">
-        <v>428</v>
-      </c>
-      <c r="I7" t="s">
-        <v>391</v>
-      </c>
-      <c r="J7" t="s">
-        <v>432</v>
-      </c>
-      <c r="K7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L7" t="s">
-        <v>394</v>
-      </c>
       <c r="M7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B8">
         <v>30986</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J8" t="s">
         <v>423</v>
       </c>
-      <c r="G8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I8" t="s">
-        <v>391</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>384</v>
+      </c>
+      <c r="L8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" t="s">
+        <v>386</v>
+      </c>
+      <c r="N8" t="s">
         <v>432</v>
-      </c>
-      <c r="K8" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" t="s">
-        <v>433</v>
-      </c>
-      <c r="M8" t="s">
-        <v>395</v>
-      </c>
-      <c r="N8" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B9">
         <v>37211</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" t="s">
+        <v>380</v>
+      </c>
+      <c r="H9" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" t="s">
+        <v>423</v>
+      </c>
+      <c r="K9" t="s">
+        <v>384</v>
+      </c>
+      <c r="L9" t="s">
         <v>424</v>
       </c>
-      <c r="G9" t="s">
-        <v>389</v>
-      </c>
-      <c r="H9" t="s">
-        <v>428</v>
-      </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="J9" t="s">
-        <v>432</v>
-      </c>
-      <c r="K9" t="s">
-        <v>393</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>386</v>
+      </c>
+      <c r="N9" t="s">
         <v>433</v>
-      </c>
-      <c r="M9" t="s">
-        <v>395</v>
-      </c>
-      <c r="N9" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B10">
         <v>56231</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J10" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L10" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M10" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B11">
         <v>41903</v>
       </c>
       <c r="C11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" t="s">
+        <v>419</v>
+      </c>
+      <c r="I11" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11" t="s">
+        <v>423</v>
+      </c>
+      <c r="K11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" t="s">
         <v>385</v>
       </c>
-      <c r="D11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" t="s">
-        <v>421</v>
-      </c>
-      <c r="G11" t="s">
-        <v>389</v>
-      </c>
-      <c r="H11" t="s">
-        <v>428</v>
-      </c>
-      <c r="I11" t="s">
-        <v>391</v>
-      </c>
-      <c r="J11" t="s">
-        <v>432</v>
-      </c>
-      <c r="K11" t="s">
-        <v>393</v>
-      </c>
-      <c r="L11" t="s">
-        <v>394</v>
-      </c>
       <c r="M11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B12">
         <v>41903</v>
       </c>
       <c r="C12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" t="s">
+        <v>382</v>
+      </c>
+      <c r="J12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K12" t="s">
+        <v>384</v>
+      </c>
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="D12" t="s">
-        <v>412</v>
-      </c>
-      <c r="E12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F12" t="s">
-        <v>421</v>
-      </c>
-      <c r="G12" t="s">
-        <v>389</v>
-      </c>
-      <c r="H12" t="s">
-        <v>428</v>
-      </c>
-      <c r="I12" t="s">
-        <v>391</v>
-      </c>
-      <c r="J12" t="s">
-        <v>432</v>
-      </c>
-      <c r="K12" t="s">
-        <v>393</v>
-      </c>
-      <c r="L12" t="s">
-        <v>394</v>
-      </c>
       <c r="M12" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N12" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B13">
         <v>81391</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I13" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J13" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K13" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L13" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M13" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B14">
         <v>42211</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G14" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H14" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J14" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L14" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B15">
         <v>27061</v>
       </c>
       <c r="C15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I15" t="s">
+        <v>382</v>
+      </c>
+      <c r="J15" t="s">
+        <v>422</v>
+      </c>
+      <c r="K15" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" t="s">
         <v>385</v>
       </c>
-      <c r="D15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" t="s">
-        <v>387</v>
-      </c>
-      <c r="F15" t="s">
-        <v>422</v>
-      </c>
-      <c r="G15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H15" t="s">
-        <v>428</v>
-      </c>
-      <c r="I15" t="s">
-        <v>391</v>
-      </c>
-      <c r="J15" t="s">
-        <v>431</v>
-      </c>
-      <c r="K15" t="s">
-        <v>393</v>
-      </c>
-      <c r="L15" t="s">
-        <v>394</v>
-      </c>
       <c r="M15" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N15" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B16">
         <v>28369</v>
       </c>
       <c r="C16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" t="s">
+        <v>419</v>
+      </c>
+      <c r="I16" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" t="s">
+        <v>422</v>
+      </c>
+      <c r="K16" t="s">
+        <v>384</v>
+      </c>
+      <c r="L16" t="s">
         <v>385</v>
       </c>
-      <c r="D16" t="s">
-        <v>415</v>
-      </c>
-      <c r="E16" t="s">
-        <v>387</v>
-      </c>
-      <c r="F16" t="s">
-        <v>427</v>
-      </c>
-      <c r="G16" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" t="s">
-        <v>428</v>
-      </c>
-      <c r="I16" t="s">
-        <v>391</v>
-      </c>
-      <c r="J16" t="s">
-        <v>431</v>
-      </c>
-      <c r="K16" t="s">
-        <v>393</v>
-      </c>
-      <c r="L16" t="s">
-        <v>394</v>
-      </c>
       <c r="M16" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N16" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B17">
         <v>48486</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E17" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F17" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H17" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I17" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J17" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="K17" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L17" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M17" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N17" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B18">
         <v>81390</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F18" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G18" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H18" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="J18" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K18" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B19">
         <v>59268</v>
       </c>
       <c r="C19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" t="s">
+        <v>381</v>
+      </c>
+      <c r="G19" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J19" t="s">
+        <v>423</v>
+      </c>
+      <c r="K19" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" t="s">
         <v>385</v>
       </c>
-      <c r="D19" t="s">
-        <v>417</v>
-      </c>
-      <c r="E19" t="s">
-        <v>387</v>
-      </c>
-      <c r="F19" t="s">
-        <v>390</v>
-      </c>
-      <c r="G19" t="s">
-        <v>389</v>
-      </c>
-      <c r="H19" t="s">
-        <v>390</v>
-      </c>
-      <c r="I19" t="s">
-        <v>391</v>
-      </c>
-      <c r="J19" t="s">
-        <v>432</v>
-      </c>
-      <c r="K19" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" t="s">
-        <v>394</v>
-      </c>
       <c r="M19" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N19" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B20">
         <v>47536</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H20" t="s">
         <v>419</v>
       </c>
-      <c r="G20" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" t="s">
-        <v>428</v>
-      </c>
       <c r="I20" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J20" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K20" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L20" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M20" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N20" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B21">
         <v>85712</v>
       </c>
       <c r="C21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21" t="s">
+        <v>382</v>
+      </c>
+      <c r="J21" t="s">
+        <v>383</v>
+      </c>
+      <c r="K21" t="s">
+        <v>384</v>
+      </c>
+      <c r="L21" t="s">
         <v>385</v>
       </c>
-      <c r="D21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" t="s">
-        <v>429</v>
-      </c>
-      <c r="G21" t="s">
-        <v>389</v>
-      </c>
-      <c r="H21" t="s">
-        <v>428</v>
-      </c>
-      <c r="I21" t="s">
-        <v>391</v>
-      </c>
-      <c r="J21" t="s">
-        <v>392</v>
-      </c>
-      <c r="K21" t="s">
-        <v>393</v>
-      </c>
-      <c r="L21" t="s">
-        <v>394</v>
-      </c>
       <c r="M21" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N21" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B22">
         <v>88421</v>
       </c>
       <c r="C22" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D22" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E22" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F22" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G22" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I22" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J22" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K22" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L22" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M22" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N22" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H23" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" t="s">
+        <v>382</v>
+      </c>
+      <c r="J23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" t="s">
+        <v>384</v>
+      </c>
+      <c r="L23" t="s">
         <v>385</v>
       </c>
-      <c r="D23" t="s">
-        <v>418</v>
-      </c>
-      <c r="E23" t="s">
-        <v>387</v>
-      </c>
-      <c r="F23" t="s">
-        <v>420</v>
-      </c>
-      <c r="G23" t="s">
-        <v>389</v>
-      </c>
-      <c r="H23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I23" t="s">
-        <v>391</v>
-      </c>
-      <c r="J23" t="s">
-        <v>392</v>
-      </c>
-      <c r="K23" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" t="s">
-        <v>394</v>
-      </c>
       <c r="M23" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N23" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J24" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L24" t="s">
         <v>385</v>
       </c>
-      <c r="D24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E24" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" t="s">
-        <v>390</v>
-      </c>
-      <c r="G24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H24" t="s">
-        <v>390</v>
-      </c>
-      <c r="I24" t="s">
-        <v>391</v>
-      </c>
-      <c r="J24" t="s">
-        <v>432</v>
-      </c>
-      <c r="K24" t="s">
-        <v>393</v>
-      </c>
-      <c r="L24" t="s">
-        <v>394</v>
-      </c>
       <c r="M24" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N24" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4434,231 +4407,231 @@
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>26848</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="G2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>41520</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="G3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>41828</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="G4" t="s">
-        <v>497</v>
-      </c>
-      <c r="H4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>49324</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H5" t="s">
+        <v>493</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="G5" t="s">
-        <v>498</v>
-      </c>
-      <c r="H5" t="s">
-        <v>502</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>50288</v>
       </c>
       <c r="D6" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G6" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C7">
         <v>51993</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C8">
         <v>67048</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4666,144 +4639,144 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C9">
         <v>68708</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E9" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C10">
         <v>73053</v>
       </c>
       <c r="D10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E10" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G10" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C11">
         <v>76963</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E11" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F11" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G11" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C12">
         <v>85003</v>
       </c>
       <c r="D12" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C13">
         <v>87908</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" t="s">
+        <v>491</v>
+      </c>
+      <c r="H13" t="s">
         <v>494</v>
       </c>
-      <c r="F13" t="s">
-        <v>500</v>
-      </c>
-      <c r="G13" t="s">
-        <v>500</v>
-      </c>
-      <c r="H13" t="s">
-        <v>503</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4841,310 +4814,313 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B2">
         <v>44423</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B3">
-        <v>63118</v>
+        <v>71862</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G3" t="s">
-        <v>555</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B4">
-        <v>71862</v>
+        <v>63118</v>
       </c>
       <c r="D4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" t="s">
         <v>532</v>
       </c>
       <c r="F4" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>547</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="I4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B5">
-        <v>63118</v>
+        <v>52781</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>525</v>
+      </c>
+      <c r="E5" t="s">
+        <v>533</v>
       </c>
       <c r="F5" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="I5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B6">
-        <v>62376</v>
+        <v>55909</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="H6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B7">
-        <v>52781</v>
+        <v>35565</v>
       </c>
       <c r="D7" t="s">
-        <v>533</v>
-      </c>
-      <c r="E7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F7" t="s">
         <v>540</v>
       </c>
-      <c r="F7" t="s">
-        <v>547</v>
-      </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>548</v>
       </c>
       <c r="H7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B8">
-        <v>52986</v>
+        <v>47672</v>
       </c>
       <c r="D8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F8" t="s">
         <v>541</v>
       </c>
-      <c r="F8" t="s">
-        <v>548</v>
-      </c>
       <c r="G8" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I8" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B9">
-        <v>55909</v>
+        <v>47688</v>
       </c>
       <c r="D9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F9" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G9" t="s">
-        <v>555</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B10">
-        <v>35565</v>
+        <v>52110</v>
       </c>
       <c r="D10" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F10" t="s">
+        <v>543</v>
+      </c>
+      <c r="G10" t="s">
         <v>550</v>
       </c>
-      <c r="G10" t="s">
-        <v>555</v>
-      </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="I10" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B11">
-        <v>47172</v>
+        <v>53605</v>
       </c>
       <c r="D11" t="s">
-        <v>536</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
+        <v>544</v>
+      </c>
+      <c r="G11" t="s">
         <v>551</v>
       </c>
-      <c r="G11" t="s">
-        <v>557</v>
-      </c>
       <c r="H11" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="I11" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B12">
+        <v>47672</v>
+      </c>
+      <c r="D12" t="s">
         <v>528</v>
       </c>
-      <c r="B12">
-        <v>47288</v>
-      </c>
-      <c r="D12" t="s">
-        <v>537</v>
-      </c>
       <c r="F12" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>549</v>
       </c>
       <c r="H12" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13">
+        <v>54246</v>
+      </c>
+      <c r="D13" t="s">
         <v>529</v>
       </c>
-      <c r="B13">
-        <v>52110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>538</v>
+      <c r="E13" t="s">
+        <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="G13" t="s">
-        <v>558</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="I13" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5168,38 +5144,38 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B2">
         <v>53686</v>
       </c>
       <c r="C2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" t="s">
         <v>573</v>
-      </c>
-      <c r="D2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B3">
         <v>67048</v>
       </c>
       <c r="C3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" t="s">
         <v>574</v>
-      </c>
-      <c r="D3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5210,10 +5186,10 @@
         <v>68708</v>
       </c>
       <c r="C4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" t="s">
         <v>575</v>
-      </c>
-      <c r="D4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5224,10 +5200,10 @@
         <v>71414</v>
       </c>
       <c r="C5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D5" t="s">
         <v>576</v>
-      </c>
-      <c r="D5" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5238,10 +5214,10 @@
         <v>79351</v>
       </c>
       <c r="C6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" t="s">
         <v>577</v>
-      </c>
-      <c r="D6" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5252,24 +5228,24 @@
         <v>85880</v>
       </c>
       <c r="C7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D7" t="s">
         <v>578</v>
-      </c>
-      <c r="D7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B8">
         <v>91586</v>
       </c>
       <c r="C8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" t="s">
         <v>579</v>
-      </c>
-      <c r="D8" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5287,62 +5263,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B2">
         <v>68685</v>
       </c>
       <c r="C2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" t="s">
         <v>591</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B3">
         <v>80855</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5352,7 +5328,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5366,608 +5342,582 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B2">
         <v>59661</v>
       </c>
       <c r="C2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" t="s">
         <v>602</v>
       </c>
-      <c r="D2" t="s">
-        <v>609</v>
-      </c>
       <c r="E2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B3">
         <v>51286</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B4">
         <v>69221</v>
       </c>
       <c r="C4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B5">
         <v>81390</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B6">
         <v>85712</v>
       </c>
       <c r="C6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" t="s">
         <v>604</v>
       </c>
-      <c r="D6" t="s">
-        <v>611</v>
-      </c>
       <c r="E6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B7">
-        <v>77736</v>
+        <v>69221</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>648</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B8">
-        <v>69221</v>
+        <v>59013</v>
       </c>
       <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" t="s">
         <v>605</v>
       </c>
       <c r="E8" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>204</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B9">
-        <v>59013</v>
+        <v>59268</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E9" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B10">
-        <v>59268</v>
+        <v>51011</v>
       </c>
       <c r="C10" t="s">
-        <v>500</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B11">
         <v>51011</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E11" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B12">
-        <v>51011</v>
+        <v>42801</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>599</v>
       </c>
       <c r="D12" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E12" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>638</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
-        <v>648</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>594</v>
       </c>
       <c r="B13">
-        <v>42801</v>
+        <v>66268</v>
       </c>
       <c r="C13" t="s">
-        <v>606</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E13" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F13" t="s">
-        <v>647</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>601</v>
+        <v>391</v>
       </c>
       <c r="B14">
-        <v>66268</v>
+        <v>35621</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="B15">
-        <v>35621</v>
+        <v>62627</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" t="s">
-        <v>616</v>
+        <v>491</v>
       </c>
       <c r="E15" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B16">
-        <v>62627</v>
+        <v>29254</v>
       </c>
       <c r="C16" t="s">
-        <v>500</v>
+        <v>600</v>
+      </c>
+      <c r="D16" t="s">
+        <v>609</v>
       </c>
       <c r="E16" t="s">
+        <v>630</v>
+      </c>
+      <c r="F16" t="s">
         <v>638</v>
       </c>
-      <c r="F16" t="s">
-        <v>202</v>
-      </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H16" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B17">
-        <v>29254</v>
+        <v>42341</v>
       </c>
       <c r="C17" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D17" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E17" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F17" t="s">
-        <v>647</v>
+        <v>204</v>
       </c>
       <c r="G17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B18">
-        <v>42341</v>
+        <v>64447</v>
       </c>
       <c r="C18" t="s">
-        <v>608</v>
+        <v>492</v>
       </c>
       <c r="D18" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E18" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B19">
-        <v>64447</v>
+        <v>30299</v>
       </c>
       <c r="C19" t="s">
-        <v>501</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E19" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>638</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H19" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B20">
-        <v>30299</v>
+        <v>39861</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>486</v>
       </c>
       <c r="D20" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E20" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F20" t="s">
-        <v>647</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B21">
-        <v>39861</v>
+        <v>40446</v>
       </c>
       <c r="C21" t="s">
-        <v>495</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E21" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H21" t="s">
-        <v>648</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B22">
-        <v>40446</v>
+        <v>42211</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>486</v>
       </c>
       <c r="D22" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E22" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B23">
-        <v>42211</v>
+        <v>29386</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E23" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>638</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>401</v>
-      </c>
-      <c r="B24">
-        <v>29386</v>
-      </c>
-      <c r="C24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E24" t="s">
-        <v>646</v>
-      </c>
-      <c r="F24" t="s">
-        <v>647</v>
-      </c>
-      <c r="G24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5988,22 +5938,22 @@
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>66</v>
@@ -6011,22 +5961,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>25152</v>
       </c>
       <c r="G2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="H2">
         <v>33737</v>
@@ -6037,19 +5987,19 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E3">
         <v>25110</v>
       </c>
       <c r="G3" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="H3">
         <v>48256</v>
@@ -6057,25 +6007,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4">
         <v>25141</v>
       </c>
       <c r="F4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G4" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="H4">
         <v>50584</v>
@@ -6083,22 +6033,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E5">
         <v>25001</v>
       </c>
       <c r="G5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="H5">
         <v>59970</v>
@@ -6106,22 +6056,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>25131</v>
       </c>
       <c r="G6" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H6">
         <v>62885</v>
@@ -6129,22 +6079,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E7">
         <v>25042</v>
       </c>
       <c r="G7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H7">
         <v>63198</v>
@@ -6152,22 +6102,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>25157</v>
       </c>
       <c r="G8" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="H8">
         <v>63273</v>
@@ -6178,19 +6128,19 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E9">
         <v>25130</v>
       </c>
       <c r="G9" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="H9">
         <v>69717</v>
@@ -6201,19 +6151,19 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E10">
         <v>25099</v>
       </c>
       <c r="G10" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="H10">
         <v>74083</v>
@@ -6221,22 +6171,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E11">
         <v>25066</v>
       </c>
       <c r="G11" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="H11">
         <v>86075</v>
@@ -6244,22 +6194,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E12">
         <v>25147</v>
       </c>
       <c r="G12" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="H12">
         <v>87668</v>
@@ -6267,25 +6217,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E13">
         <v>25080</v>
       </c>
       <c r="F13" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G13" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="H13">
         <v>90125</v>
@@ -6312,115 +6262,115 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6546,16 +6496,16 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6563,16 +6513,16 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6580,16 +6530,16 @@
         <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6597,16 +6547,16 @@
         <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6614,16 +6564,16 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6631,16 +6581,16 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6648,16 +6598,16 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6665,7 +6615,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -6674,126 +6624,126 @@
         <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
         <v>99</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6803,7 +6753,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6817,58 +6767,95 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
         <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6889,313 +6876,313 @@
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E2">
         <v>993</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>493</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>613</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E5">
         <v>518</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>922</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>445</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E8">
         <v>313</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>869</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E10">
         <v>281</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>755</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>708</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E13">
         <v>708</v>
       </c>
       <c r="F13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7230,139 +7217,139 @@
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
         <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7372,7 +7359,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7386,15 +7373,15 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>246</v>
@@ -7402,10 +7389,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
         <v>247</v>
@@ -7416,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
         <v>248</v>
@@ -7424,10 +7411,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>249</v>
@@ -7435,10 +7422,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>250</v>
@@ -7449,7 +7436,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
         <v>251</v>
@@ -7457,10 +7444,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>252</v>
@@ -7468,10 +7455,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>253</v>
@@ -7479,10 +7466,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>254</v>
@@ -7493,7 +7480,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>255</v>
@@ -7501,10 +7488,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>256</v>
@@ -7512,10 +7499,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
         <v>257</v>
@@ -7523,10 +7510,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>258</v>
@@ -7534,10 +7521,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>259</v>
@@ -7545,10 +7532,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>260</v>
@@ -7556,10 +7543,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
         <v>261</v>
@@ -7567,57 +7554,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7627,7 +7570,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7641,304 +7584,227 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
         <v>297</v>
-      </c>
-      <c r="C13" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>278</v>
-      </c>
-      <c r="B25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C28" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7948,7 +7814,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7956,324 +7822,347 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3">
+        <v>629</v>
+      </c>
+      <c r="F3" t="s">
         <v>349</v>
       </c>
-      <c r="E3">
-        <v>994</v>
-      </c>
-      <c r="F3" t="s">
-        <v>360</v>
-      </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4">
+        <v>994</v>
+      </c>
+      <c r="F4" t="s">
         <v>350</v>
       </c>
-      <c r="E4">
-        <v>389</v>
-      </c>
-      <c r="F4" t="s">
-        <v>361</v>
-      </c>
       <c r="G4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5">
+        <v>389</v>
+      </c>
+      <c r="F5" t="s">
         <v>351</v>
       </c>
-      <c r="E5">
-        <v>131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>362</v>
-      </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E6">
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
         <v>352</v>
       </c>
-      <c r="E7">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>363</v>
-      </c>
       <c r="G7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
         <v>353</v>
       </c>
-      <c r="E8">
-        <v>410</v>
-      </c>
-      <c r="F8" t="s">
-        <v>364</v>
-      </c>
       <c r="G8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9">
+        <v>410</v>
+      </c>
+      <c r="F9" t="s">
         <v>354</v>
       </c>
-      <c r="E9">
-        <v>269</v>
-      </c>
-      <c r="F9" t="s">
-        <v>365</v>
-      </c>
       <c r="G9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10">
+        <v>269</v>
+      </c>
+      <c r="F10" t="s">
         <v>355</v>
       </c>
-      <c r="E10">
-        <v>184</v>
-      </c>
-      <c r="F10" t="s">
-        <v>366</v>
-      </c>
       <c r="G10" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E11">
         <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G11" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12">
+        <v>184</v>
+      </c>
+      <c r="F12" t="s">
         <v>356</v>
       </c>
-      <c r="E12">
-        <v>353</v>
-      </c>
-      <c r="F12" t="s">
-        <v>367</v>
-      </c>
       <c r="G12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13">
+        <v>353</v>
+      </c>
+      <c r="F13" t="s">
         <v>357</v>
       </c>
-      <c r="E13">
-        <v>268</v>
-      </c>
-      <c r="F13" t="s">
-        <v>368</v>
-      </c>
       <c r="G13" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14">
+        <v>268</v>
+      </c>
+      <c r="F14" t="s">
         <v>358</v>
       </c>
-      <c r="E14">
+      <c r="G14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15">
         <v>384</v>
       </c>
-      <c r="F14" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" t="s">
-        <v>382</v>
+      <c r="F15" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
